--- a/Features/Plots/RR_plots/sarkar2015.xlsx
+++ b/Features/Plots/RR_plots/sarkar2015.xlsx
@@ -573,40 +573,40 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" t="n">
-        <v>11.04565537555228</v>
+        <v>12.15022091310751</v>
       </c>
       <c r="D3" t="n">
-        <v>8.869999999999999</v>
+        <v>8.83</v>
       </c>
       <c r="E3" t="n">
         <v>3.01</v>
       </c>
       <c r="F3" t="n">
-        <v>3.474236926610248</v>
+        <v>3.018189854863342</v>
       </c>
       <c r="G3" t="n">
-        <v>2.51941704015477</v>
+        <v>2.193722034268782</v>
       </c>
       <c r="H3" t="n">
-        <v>3.683061830114239</v>
+        <v>3.179669619455595</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4638102062140593</v>
+        <v>0.4442367889719551</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6395870630725788</v>
+        <v>0.6111945582381583</v>
       </c>
       <c r="K3" t="n">
-        <v>4.609999999999999</v>
+        <v>3.46</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0008333333333333334</v>
+        <v>0.001</v>
       </c>
       <c r="M3" t="n">
-        <v>0.001333333333333333</v>
+        <v>0.0015</v>
       </c>
       <c r="N3" t="n">
         <v>-7.105427357601002e-18</v>
@@ -1156,34 +1156,34 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C14" t="n">
-        <v>9.563658099222952</v>
+        <v>10.75911536162582</v>
       </c>
       <c r="D14" t="n">
-        <v>9.01</v>
+        <v>7.819999999999999</v>
       </c>
       <c r="E14" t="n">
         <v>3.85</v>
       </c>
       <c r="F14" t="n">
-        <v>2.568985347230636</v>
+        <v>2.148674009709244</v>
       </c>
       <c r="G14" t="n">
-        <v>1.713725578131708</v>
+        <v>1.367744493682939</v>
       </c>
       <c r="H14" t="n">
-        <v>2.766399585502186</v>
+        <v>2.289397924595648</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2731580917524141</v>
+        <v>0.2452620132127208</v>
       </c>
       <c r="J14" t="n">
-        <v>0.409481625380456</v>
+        <v>0.3852971924164814</v>
       </c>
       <c r="K14" t="n">
-        <v>6.22</v>
+        <v>5.23</v>
       </c>
       <c r="L14" t="n">
         <v>0.001</v>
@@ -1262,34 +1262,34 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C16" t="n">
-        <v>12.47401247401248</v>
+        <v>13.60801360801361</v>
       </c>
       <c r="D16" t="n">
-        <v>7.719999999999999</v>
+        <v>5.94</v>
       </c>
       <c r="E16" t="n">
-        <v>3.46</v>
+        <v>3.32</v>
       </c>
       <c r="F16" t="n">
-        <v>1.819387259491502</v>
+        <v>1.110253861224376</v>
       </c>
       <c r="G16" t="n">
-        <v>1.226572460150643</v>
+        <v>0.7998233706528113</v>
       </c>
       <c r="H16" t="n">
-        <v>1.904614571682855</v>
+        <v>1.146597337579961</v>
       </c>
       <c r="I16" t="n">
-        <v>0.2550046694699881</v>
+        <v>0.1814001218641795</v>
       </c>
       <c r="J16" t="n">
-        <v>0.3782509894992729</v>
+        <v>0.2518058275315161</v>
       </c>
       <c r="K16" t="n">
-        <v>4.49</v>
+        <v>4.4</v>
       </c>
       <c r="L16" t="n">
         <v>0.0015</v>
@@ -1474,10 +1474,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C20" t="n">
-        <v>11.16856256463288</v>
+        <v>11.32289111153048</v>
       </c>
       <c r="D20" t="n">
         <v>7.599999999999999</v>
@@ -1486,28 +1486,28 @@
         <v>2.64</v>
       </c>
       <c r="F20" t="n">
-        <v>1.581893643706807</v>
+        <v>1.599027482218141</v>
       </c>
       <c r="G20" t="n">
-        <v>1.358057231652792</v>
+        <v>1.301157177284897</v>
       </c>
       <c r="H20" t="n">
-        <v>1.68310883698674</v>
+        <v>1.65976236585576</v>
       </c>
       <c r="I20" t="n">
-        <v>0.2527924526344389</v>
+        <v>0.2455476839563873</v>
       </c>
       <c r="J20" t="n">
-        <v>0.2944579688389093</v>
+        <v>0.3017602344250125</v>
       </c>
       <c r="K20" t="n">
-        <v>5.43</v>
+        <v>5.385</v>
       </c>
       <c r="L20" t="n">
-        <v>0.001</v>
+        <v>0.001166666666666667</v>
       </c>
       <c r="M20" t="n">
-        <v>0.001166666666666667</v>
+        <v>0.001333333333333333</v>
       </c>
       <c r="N20" t="n">
         <v>-3.552713678800501e-18</v>
@@ -1527,40 +1527,40 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C21" t="n">
-        <v>8.664259927797834</v>
+        <v>10.83032490974729</v>
       </c>
       <c r="D21" t="n">
-        <v>9.33</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="E21" t="n">
-        <v>4.67</v>
+        <v>3.99</v>
       </c>
       <c r="F21" t="n">
-        <v>2.400139876876227</v>
+        <v>1.593985222293133</v>
       </c>
       <c r="G21" t="n">
-        <v>1.716058607057796</v>
+        <v>1.367666301080461</v>
       </c>
       <c r="H21" t="n">
-        <v>2.573076720489269</v>
+        <v>1.673325863197137</v>
       </c>
       <c r="I21" t="n">
-        <v>0.2478062970480572</v>
+        <v>0.2468711734802276</v>
       </c>
       <c r="J21" t="n">
-        <v>0.3465905959388054</v>
+        <v>0.2877229643128398</v>
       </c>
       <c r="K21" t="n">
-        <v>6.765</v>
+        <v>5.29</v>
       </c>
       <c r="L21" t="n">
-        <v>0.001</v>
+        <v>0.001333333333333333</v>
       </c>
       <c r="M21" t="n">
-        <v>0.001166666666666667</v>
+        <v>0.0015</v>
       </c>
       <c r="N21" t="n">
         <v>-1.1842378929335e-17</v>
@@ -1739,10 +1739,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C25" t="n">
-        <v>11.72383847155884</v>
+        <v>11.53180857197771</v>
       </c>
       <c r="D25" t="n">
         <v>7.62</v>
@@ -1751,28 +1751,28 @@
         <v>3.5</v>
       </c>
       <c r="F25" t="n">
-        <v>1.525741622949312</v>
+        <v>1.540043289434857</v>
       </c>
       <c r="G25" t="n">
-        <v>1.312971608392369</v>
+        <v>1.266877614013638</v>
       </c>
       <c r="H25" t="n">
-        <v>1.606530756452727</v>
+        <v>1.632562743391846</v>
       </c>
       <c r="I25" t="n">
-        <v>0.2565511175755823</v>
+        <v>0.2434898354821523</v>
       </c>
       <c r="J25" t="n">
-        <v>0.298125805613196</v>
+        <v>0.2959914067720271</v>
       </c>
       <c r="K25" t="n">
-        <v>5.15</v>
+        <v>5.325</v>
       </c>
       <c r="L25" t="n">
-        <v>0.001</v>
+        <v>0.001166666666666667</v>
       </c>
       <c r="M25" t="n">
-        <v>0.001333333333333333</v>
+        <v>0.0015</v>
       </c>
       <c r="N25" t="n">
         <v>9.473903143468002e-18</v>
@@ -1792,34 +1792,34 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="n">
-        <v>7.372516895351218</v>
+        <v>8.60126971124309</v>
       </c>
       <c r="D26" t="n">
-        <v>11.32</v>
+        <v>10.22</v>
       </c>
       <c r="E26" t="n">
         <v>4.69</v>
       </c>
       <c r="F26" t="n">
-        <v>3.640920213352663</v>
+        <v>2.61567072341557</v>
       </c>
       <c r="G26" t="n">
-        <v>2.636083584916583</v>
+        <v>2.138705661086141</v>
       </c>
       <c r="H26" t="n">
-        <v>3.791111974078318</v>
+        <v>2.859731922167997</v>
       </c>
       <c r="I26" t="n">
-        <v>0.3239095127892587</v>
+        <v>0.3065930703994058</v>
       </c>
       <c r="J26" t="n">
-        <v>0.4473790964594712</v>
+        <v>0.3749681561316607</v>
       </c>
       <c r="K26" t="n">
-        <v>8.17</v>
+        <v>6.26</v>
       </c>
       <c r="L26" t="n">
         <v>0.0005</v>
@@ -1845,40 +1845,40 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C27" t="n">
-        <v>9.234320892651018</v>
+        <v>10.3886110042324</v>
       </c>
       <c r="D27" t="n">
         <v>9.17</v>
       </c>
       <c r="E27" t="n">
-        <v>4.45</v>
+        <v>4.44</v>
       </c>
       <c r="F27" t="n">
-        <v>3.188683113763423</v>
+        <v>2.739988594866774</v>
       </c>
       <c r="G27" t="n">
-        <v>2.036437716069061</v>
+        <v>1.81111230402142</v>
       </c>
       <c r="H27" t="n">
-        <v>3.443645631898735</v>
+        <v>2.928707357472625</v>
       </c>
       <c r="I27" t="n">
-        <v>0.3134186558013175</v>
+        <v>0.3135823535242936</v>
       </c>
       <c r="J27" t="n">
-        <v>0.4907553849578181</v>
+        <v>0.4744112611350706</v>
       </c>
       <c r="K27" t="n">
-        <v>6.220000000000001</v>
+        <v>4.72</v>
       </c>
       <c r="L27" t="n">
+        <v>0.0006666666666666666</v>
+      </c>
+      <c r="M27" t="n">
         <v>0.0008333333333333334</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0.001</v>
       </c>
       <c r="N27" t="n">
         <v>2.013204417986951e-17</v>
@@ -2163,40 +2163,40 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C33" t="n">
-        <v>13.06154759548783</v>
+        <v>15.43637443103107</v>
       </c>
       <c r="D33" t="n">
-        <v>7.38</v>
+        <v>7.13</v>
       </c>
       <c r="E33" t="n">
-        <v>3.12</v>
+        <v>2.75</v>
       </c>
       <c r="F33" t="n">
-        <v>1.848959166666479</v>
+        <v>1.676593769124372</v>
       </c>
       <c r="G33" t="n">
-        <v>1.628823334356877</v>
+        <v>1.111473381113141</v>
       </c>
       <c r="H33" t="n">
-        <v>1.941385816598259</v>
+        <v>1.748429598412833</v>
       </c>
       <c r="I33" t="n">
-        <v>0.3545825584390589</v>
+        <v>0.2859519880164422</v>
       </c>
       <c r="J33" t="n">
-        <v>0.4025044692921288</v>
+        <v>0.4313421531489577</v>
       </c>
       <c r="K33" t="n">
-        <v>3.94</v>
+        <v>3.67</v>
       </c>
       <c r="L33" t="n">
-        <v>0.001</v>
+        <v>0.001333333333333333</v>
       </c>
       <c r="M33" t="n">
-        <v>0.001333333333333333</v>
+        <v>0.0015</v>
       </c>
       <c r="N33" t="n">
         <v>-1.1842378929335e-17</v>
@@ -2481,40 +2481,40 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C39" t="n">
-        <v>11.73249902229175</v>
+        <v>14.0789988267501</v>
       </c>
       <c r="D39" t="n">
         <v>7.57</v>
       </c>
       <c r="E39" t="n">
-        <v>3.29</v>
+        <v>2.51</v>
       </c>
       <c r="F39" t="n">
-        <v>2.26141057258026</v>
+        <v>2.027717032437308</v>
       </c>
       <c r="G39" t="n">
-        <v>1.38646793447715</v>
+        <v>1.622057242198837</v>
       </c>
       <c r="H39" t="n">
-        <v>2.398586968288714</v>
+        <v>2.108384991581773</v>
       </c>
       <c r="I39" t="n">
-        <v>0.271112228094867</v>
+        <v>0.3806157001639821</v>
       </c>
       <c r="J39" t="n">
-        <v>0.4421999555299687</v>
+        <v>0.4758037620111009</v>
       </c>
       <c r="K39" t="n">
-        <v>5.49</v>
+        <v>3.655</v>
       </c>
       <c r="L39" t="n">
         <v>0.001333333333333333</v>
       </c>
       <c r="M39" t="n">
-        <v>0.0015</v>
+        <v>0.001666666666666667</v>
       </c>
       <c r="N39" t="n">
         <v>7.105427357601002e-18</v>
@@ -2534,10 +2534,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C40" t="n">
-        <v>13.34681496461072</v>
+        <v>14.56016177957533</v>
       </c>
       <c r="D40" t="n">
         <v>7.04</v>
@@ -2546,28 +2546,28 @@
         <v>2.76</v>
       </c>
       <c r="F40" t="n">
-        <v>2.145290190160762</v>
+        <v>2.00649626780796</v>
       </c>
       <c r="G40" t="n">
-        <v>1.544981317921765</v>
+        <v>1.367808189193296</v>
       </c>
       <c r="H40" t="n">
-        <v>2.254957255076517</v>
+        <v>2.098824779381417</v>
       </c>
       <c r="I40" t="n">
-        <v>0.3436763295680366</v>
+        <v>0.3319251419680394</v>
       </c>
       <c r="J40" t="n">
-        <v>0.4772131868911705</v>
+        <v>0.4869151711566335</v>
       </c>
       <c r="K40" t="n">
-        <v>4.17</v>
+        <v>3.38</v>
       </c>
       <c r="L40" t="n">
         <v>0.001166666666666667</v>
       </c>
       <c r="M40" t="n">
-        <v>0.001666666666666667</v>
+        <v>0.001833333333333333</v>
       </c>
       <c r="N40" t="n">
         <v>1.53950926081355e-17</v>
@@ -2587,40 +2587,40 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C41" t="n">
-        <v>9.327633113097551</v>
+        <v>11.00917431192661</v>
       </c>
       <c r="D41" t="n">
         <v>9.609999999999999</v>
       </c>
       <c r="E41" t="n">
-        <v>3.26</v>
+        <v>3.04</v>
       </c>
       <c r="F41" t="n">
-        <v>2.894400998973215</v>
+        <v>2.335755885266171</v>
       </c>
       <c r="G41" t="n">
-        <v>2.170291290521686</v>
+        <v>2.242057586731934</v>
       </c>
       <c r="H41" t="n">
-        <v>3.116910099991428</v>
+        <v>2.471128284812425</v>
       </c>
       <c r="I41" t="n">
-        <v>0.3373946817756216</v>
+        <v>0.4113867131618227</v>
       </c>
       <c r="J41" t="n">
-        <v>0.4499651766767532</v>
+        <v>0.4285790615167286</v>
       </c>
       <c r="K41" t="n">
-        <v>6.3</v>
+        <v>5.205</v>
       </c>
       <c r="L41" t="n">
-        <v>0.001166666666666667</v>
+        <v>0.001333333333333333</v>
       </c>
       <c r="M41" t="n">
-        <v>0.001166666666666667</v>
+        <v>0.001333333333333333</v>
       </c>
       <c r="N41" t="n">
         <v>4.736951571734001e-18</v>
@@ -2958,10 +2958,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C48" t="n">
-        <v>12.53394610403175</v>
+        <v>13.78734071443493</v>
       </c>
       <c r="D48" t="n">
         <v>9.92</v>
@@ -2970,28 +2970,28 @@
         <v>2.48</v>
       </c>
       <c r="F48" t="n">
-        <v>3.216580309721629</v>
+        <v>2.800858796869274</v>
       </c>
       <c r="G48" t="n">
-        <v>2.414263402733384</v>
+        <v>2.149599116960268</v>
       </c>
       <c r="H48" t="n">
-        <v>3.410553474144629</v>
+        <v>2.951305737390749</v>
       </c>
       <c r="I48" t="n">
-        <v>0.5043374561799424</v>
+        <v>0.4939542570829946</v>
       </c>
       <c r="J48" t="n">
-        <v>0.6719407373556776</v>
+        <v>0.6436065754243163</v>
       </c>
       <c r="K48" t="n">
-        <v>3.845</v>
+        <v>3.78</v>
       </c>
       <c r="L48" t="n">
         <v>0.001333333333333333</v>
       </c>
       <c r="M48" t="n">
-        <v>0.0015</v>
+        <v>0.001666666666666667</v>
       </c>
       <c r="N48" t="n">
         <v>1.1842378929335e-17</v>
@@ -3011,40 +3011,40 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C49" t="n">
-        <v>13.32099907493062</v>
+        <v>14.43108233117484</v>
       </c>
       <c r="D49" t="n">
-        <v>7.4</v>
+        <v>6.35</v>
       </c>
       <c r="E49" t="n">
         <v>3.05</v>
       </c>
       <c r="F49" t="n">
-        <v>1.773940144526764</v>
+        <v>1.118641288945359</v>
       </c>
       <c r="G49" t="n">
-        <v>1.327481952168591</v>
+        <v>0.9625673469611866</v>
       </c>
       <c r="H49" t="n">
-        <v>1.846279797568367</v>
+        <v>1.149398722916649</v>
       </c>
       <c r="I49" t="n">
-        <v>0.2947230976137483</v>
+        <v>0.231514810554957</v>
       </c>
       <c r="J49" t="n">
-        <v>0.393844250403722</v>
+        <v>0.2690534089970336</v>
       </c>
       <c r="K49" t="n">
-        <v>4.01</v>
+        <v>3.94</v>
       </c>
       <c r="L49" t="n">
         <v>0.001166666666666667</v>
       </c>
       <c r="M49" t="n">
-        <v>0.0015</v>
+        <v>0.001666666666666667</v>
       </c>
       <c r="N49" t="n">
         <v>-4.736951571734001e-18</v>
@@ -3064,40 +3064,40 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C50" t="n">
-        <v>17.50632172729041</v>
+        <v>17.76461880088823</v>
       </c>
       <c r="D50" t="n">
         <v>4.1</v>
       </c>
       <c r="E50" t="n">
-        <v>2.9</v>
+        <v>2.63</v>
       </c>
       <c r="F50" t="n">
-        <v>0.752524323289857</v>
+        <v>0.7996749339575425</v>
       </c>
       <c r="G50" t="n">
-        <v>0.4262706495486953</v>
+        <v>0.4575223127527953</v>
       </c>
       <c r="H50" t="n">
-        <v>0.779621280276097</v>
+        <v>0.8264110587929216</v>
       </c>
       <c r="I50" t="n">
-        <v>0.1243738522316753</v>
+        <v>0.1354618246492362</v>
       </c>
       <c r="J50" t="n">
-        <v>0.2195655485187289</v>
+        <v>0.2367653394396869</v>
       </c>
       <c r="K50" t="n">
-        <v>3.31</v>
+        <v>3.245</v>
       </c>
       <c r="L50" t="n">
-        <v>0.001666666666666667</v>
+        <v>0.001833333333333333</v>
       </c>
       <c r="M50" t="n">
-        <v>0.002166666666666667</v>
+        <v>0.002333333333333334</v>
       </c>
       <c r="N50" t="n">
         <v>0</v>
@@ -3223,34 +3223,34 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C53" t="n">
-        <v>15.05500868558193</v>
+        <v>16.21308627678054</v>
       </c>
       <c r="D53" t="n">
-        <v>6.86</v>
+        <v>6.36</v>
       </c>
       <c r="E53" t="n">
-        <v>2.91</v>
+        <v>2.84</v>
       </c>
       <c r="F53" t="n">
-        <v>1.746470249770472</v>
+        <v>1.247246197397722</v>
       </c>
       <c r="G53" t="n">
-        <v>1.219662626744348</v>
+        <v>0.8667398179891773</v>
       </c>
       <c r="H53" t="n">
-        <v>1.824037105882544</v>
+        <v>1.298066115814461</v>
       </c>
       <c r="I53" t="n">
-        <v>0.3060338573185973</v>
+        <v>0.2342087908096599</v>
       </c>
       <c r="J53" t="n">
-        <v>0.438218746323415</v>
+        <v>0.3370285034465953</v>
       </c>
       <c r="K53" t="n">
-        <v>3.56</v>
+        <v>3.54</v>
       </c>
       <c r="L53" t="n">
         <v>0.001333333333333333</v>
@@ -3276,10 +3276,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C54" t="n">
-        <v>13.99144966964633</v>
+        <v>15.15740380878352</v>
       </c>
       <c r="D54" t="n">
         <v>7.21</v>
@@ -3288,22 +3288,22 @@
         <v>2.82</v>
       </c>
       <c r="F54" t="n">
-        <v>1.926225701870228</v>
+        <v>1.395008960544698</v>
       </c>
       <c r="G54" t="n">
-        <v>1.668460549746564</v>
+        <v>1.50342856029059</v>
       </c>
       <c r="H54" t="n">
-        <v>2.019950944498855</v>
+        <v>1.456702378038087</v>
       </c>
       <c r="I54" t="n">
-        <v>0.3890696967928249</v>
+        <v>0.3798012297663751</v>
       </c>
       <c r="J54" t="n">
-        <v>0.4491781660016079</v>
+        <v>0.3524119021974559</v>
       </c>
       <c r="K54" t="n">
-        <v>3.365</v>
+        <v>3.31</v>
       </c>
       <c r="L54" t="n">
         <v>0.0008333333333333334</v>
@@ -3329,40 +3329,40 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C55" t="n">
-        <v>13.33580292646787</v>
+        <v>14.44711983700685</v>
       </c>
       <c r="D55" t="n">
-        <v>7.07</v>
+        <v>6.61</v>
       </c>
       <c r="E55" t="n">
         <v>2.84</v>
       </c>
       <c r="F55" t="n">
-        <v>1.955044756520934</v>
+        <v>1.680852958074164</v>
       </c>
       <c r="G55" t="n">
-        <v>1.465155643816063</v>
+        <v>1.205075271614355</v>
       </c>
       <c r="H55" t="n">
-        <v>2.040854990171789</v>
+        <v>1.746234043114878</v>
       </c>
       <c r="I55" t="n">
-        <v>0.3256504487088859</v>
+        <v>0.2901644476937694</v>
       </c>
       <c r="J55" t="n">
-        <v>0.4345348597564588</v>
+        <v>0.4047247352280817</v>
       </c>
       <c r="K55" t="n">
-        <v>4.369999999999999</v>
+        <v>3.99</v>
       </c>
       <c r="L55" t="n">
         <v>0.0015</v>
       </c>
       <c r="M55" t="n">
-        <v>0.001666666666666667</v>
+        <v>0.001833333333333333</v>
       </c>
       <c r="N55" t="n">
         <v>-2.368475785867001e-18</v>
@@ -3435,34 +3435,34 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C57" t="n">
-        <v>11.95695496213631</v>
+        <v>13.15265045834994</v>
       </c>
       <c r="D57" t="n">
         <v>8.460000000000001</v>
       </c>
       <c r="E57" t="n">
-        <v>3.49</v>
+        <v>2.66</v>
       </c>
       <c r="F57" t="n">
-        <v>2.119176989095322</v>
+        <v>1.97211054456894</v>
       </c>
       <c r="G57" t="n">
-        <v>1.711437342638572</v>
+        <v>1.850674569889683</v>
       </c>
       <c r="H57" t="n">
-        <v>2.232723175357344</v>
+        <v>2.065811651089658</v>
       </c>
       <c r="I57" t="n">
-        <v>0.3410596537741276</v>
+        <v>0.4056879288319354</v>
       </c>
       <c r="J57" t="n">
-        <v>0.4223150635901398</v>
+        <v>0.4323080109656904</v>
       </c>
       <c r="K57" t="n">
-        <v>4.215</v>
+        <v>3.78</v>
       </c>
       <c r="L57" t="n">
         <v>0.001166666666666667</v>
@@ -3753,10 +3753,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C63" t="n">
-        <v>13.24016182420007</v>
+        <v>14.34350864288341</v>
       </c>
       <c r="D63" t="n">
         <v>6.72</v>
@@ -3765,25 +3765,25 @@
         <v>2.79</v>
       </c>
       <c r="F63" t="n">
-        <v>2.598441840796134</v>
+        <v>1.966428657914308</v>
       </c>
       <c r="G63" t="n">
-        <v>1.623765731722145</v>
+        <v>1.456235927630917</v>
       </c>
       <c r="H63" t="n">
-        <v>2.719799123598519</v>
+        <v>2.047816834553029</v>
       </c>
       <c r="I63" t="n">
-        <v>0.3583153508765307</v>
+        <v>0.3481255435675233</v>
       </c>
       <c r="J63" t="n">
-        <v>0.573396507715219</v>
+        <v>0.4700914408401251</v>
       </c>
       <c r="K63" t="n">
-        <v>4.005</v>
+        <v>3.37</v>
       </c>
       <c r="L63" t="n">
-        <v>0.0015</v>
+        <v>0.001333333333333333</v>
       </c>
       <c r="M63" t="n">
         <v>0.001833333333333333</v>
@@ -3806,40 +3806,40 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C64" t="n">
-        <v>13.3155792276964</v>
+        <v>13.92111368909513</v>
       </c>
       <c r="D64" t="n">
         <v>7.48</v>
       </c>
       <c r="E64" t="n">
-        <v>3.2</v>
+        <v>2.64</v>
       </c>
       <c r="F64" t="n">
-        <v>1.436802004452945</v>
+        <v>1.582207893477282</v>
       </c>
       <c r="G64" t="n">
-        <v>1.583808349797692</v>
+        <v>1.532472749275734</v>
       </c>
       <c r="H64" t="n">
-        <v>1.46574213284602</v>
+        <v>1.654208956790911</v>
       </c>
       <c r="I64" t="n">
-        <v>0.3514887593869712</v>
+        <v>0.3555621228017945</v>
       </c>
       <c r="J64" t="n">
-        <v>0.3188641820801031</v>
+        <v>0.3671015994146827</v>
       </c>
       <c r="K64" t="n">
         <v>3.835</v>
       </c>
       <c r="L64" t="n">
-        <v>0.001</v>
+        <v>0.001333333333333333</v>
       </c>
       <c r="M64" t="n">
-        <v>0.001</v>
+        <v>0.001333333333333333</v>
       </c>
       <c r="N64" t="n">
         <v>-7.105427357601002e-18</v>
@@ -3965,34 +3965,34 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C67" t="n">
-        <v>15.84077985377742</v>
+        <v>17.05930138099107</v>
       </c>
       <c r="D67" t="n">
-        <v>5.68</v>
+        <v>4.77</v>
       </c>
       <c r="E67" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="F67" t="n">
-        <v>1.358237215413174</v>
+        <v>1.110439968245435</v>
       </c>
       <c r="G67" t="n">
-        <v>0.9544820047732159</v>
+        <v>0.7975387964658094</v>
       </c>
       <c r="H67" t="n">
-        <v>1.406694761316452</v>
+        <v>1.153006104460456</v>
       </c>
       <c r="I67" t="n">
-        <v>0.2519956552000773</v>
+        <v>0.2267575781990522</v>
       </c>
       <c r="J67" t="n">
-        <v>0.3585922786427958</v>
+        <v>0.3157221680632837</v>
       </c>
       <c r="K67" t="n">
-        <v>3.51</v>
+        <v>3.305</v>
       </c>
       <c r="L67" t="n">
         <v>0.001333333333333333</v>
@@ -4018,40 +4018,40 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C68" t="n">
-        <v>13.81957773512476</v>
+        <v>16.12284069097889</v>
       </c>
       <c r="D68" t="n">
-        <v>7.540000000000001</v>
+        <v>4.94</v>
       </c>
       <c r="E68" t="n">
         <v>2.79</v>
       </c>
       <c r="F68" t="n">
-        <v>2.014878746633743</v>
+        <v>1.21384006043123</v>
       </c>
       <c r="G68" t="n">
-        <v>1.466348794754777</v>
+        <v>0.757768557551174</v>
       </c>
       <c r="H68" t="n">
-        <v>2.081764985425938</v>
+        <v>1.263347709816041</v>
       </c>
       <c r="I68" t="n">
-        <v>0.3377386859320025</v>
+        <v>0.2036230289005074</v>
       </c>
       <c r="J68" t="n">
-        <v>0.4640795577659294</v>
+        <v>0.3261758319776819</v>
       </c>
       <c r="K68" t="n">
-        <v>3.83</v>
+        <v>3.44</v>
       </c>
       <c r="L68" t="n">
-        <v>0.001333333333333333</v>
+        <v>0.0015</v>
       </c>
       <c r="M68" t="n">
-        <v>0.001833333333333333</v>
+        <v>0.002166666666666667</v>
       </c>
       <c r="N68" t="n">
         <v>-1.1842378929335e-18</v>
@@ -4124,10 +4124,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C70" t="n">
-        <v>14.08726276658188</v>
+        <v>15.26120133046371</v>
       </c>
       <c r="D70" t="n">
         <v>7.93</v>
@@ -4136,25 +4136,25 @@
         <v>2.38</v>
       </c>
       <c r="F70" t="n">
-        <v>2.492227918951234</v>
+        <v>1.791242585469651</v>
       </c>
       <c r="G70" t="n">
-        <v>1.872317272712339</v>
+        <v>1.504281922567742</v>
       </c>
       <c r="H70" t="n">
-        <v>2.613435913261941</v>
+        <v>1.870385635167899</v>
       </c>
       <c r="I70" t="n">
-        <v>0.4395970900518111</v>
+        <v>0.3826191546347221</v>
       </c>
       <c r="J70" t="n">
-        <v>0.5851444928079595</v>
+        <v>0.4556085621425448</v>
       </c>
       <c r="K70" t="n">
-        <v>3.575</v>
+        <v>3.45</v>
       </c>
       <c r="L70" t="n">
-        <v>0.001666666666666667</v>
+        <v>0.0015</v>
       </c>
       <c r="M70" t="n">
         <v>0.001833333333333333</v>
@@ -4336,40 +4336,40 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C74" t="n">
-        <v>9.886488465763456</v>
+        <v>10.98498718418162</v>
       </c>
       <c r="D74" t="n">
         <v>8.619999999999999</v>
       </c>
       <c r="E74" t="n">
-        <v>3.09</v>
+        <v>2.81</v>
       </c>
       <c r="F74" t="n">
-        <v>2.406483430235911</v>
+        <v>2.421315069681487</v>
       </c>
       <c r="G74" t="n">
-        <v>1.794661837536841</v>
+        <v>1.916674202883735</v>
       </c>
       <c r="H74" t="n">
-        <v>2.567552684116586</v>
+        <v>2.475232873443987</v>
       </c>
       <c r="I74" t="n">
-        <v>0.2957150592792305</v>
+        <v>0.3509106925821557</v>
       </c>
       <c r="J74" t="n">
-        <v>0.3965278446013036</v>
+        <v>0.4433019168219492</v>
       </c>
       <c r="K74" t="n">
-        <v>6.21</v>
+        <v>5.300000000000001</v>
       </c>
       <c r="L74" t="n">
-        <v>0.001166666666666667</v>
+        <v>0.001333333333333333</v>
       </c>
       <c r="M74" t="n">
-        <v>0.001333333333333333</v>
+        <v>0.0015</v>
       </c>
       <c r="N74" t="n">
         <v>1.30266168222685e-17</v>
@@ -4442,40 +4442,40 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C76" t="n">
-        <v>13.27166700180977</v>
+        <v>14.47818218379248</v>
       </c>
       <c r="D76" t="n">
-        <v>7.07</v>
+        <v>6.48</v>
       </c>
       <c r="E76" t="n">
         <v>2.91</v>
       </c>
       <c r="F76" t="n">
-        <v>2.191784660955542</v>
+        <v>1.95578628689333</v>
       </c>
       <c r="G76" t="n">
-        <v>1.453708736614419</v>
+        <v>1.175650368042637</v>
       </c>
       <c r="H76" t="n">
-        <v>2.292219690847959</v>
+        <v>2.050908889426167</v>
       </c>
       <c r="I76" t="n">
-        <v>0.3215523044994693</v>
+        <v>0.2836880035493996</v>
       </c>
       <c r="J76" t="n">
-        <v>0.4848106026646081</v>
+        <v>0.4719371695700776</v>
       </c>
       <c r="K76" t="n">
-        <v>3.99</v>
+        <v>3.915</v>
       </c>
       <c r="L76" t="n">
-        <v>0.001333333333333333</v>
+        <v>0.0015</v>
       </c>
       <c r="M76" t="n">
-        <v>0.001666666666666667</v>
+        <v>0.001833333333333333</v>
       </c>
       <c r="N76" t="n">
         <v>-5.921189464667502e-18</v>
@@ -4601,40 +4601,40 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C79" t="n">
-        <v>10.43075140042496</v>
+        <v>11.98039571610093</v>
       </c>
       <c r="D79" t="n">
-        <v>8.039999999999999</v>
+        <v>8.01</v>
       </c>
       <c r="E79" t="n">
         <v>2.81</v>
       </c>
       <c r="F79" t="n">
-        <v>2.269854070199227</v>
+        <v>2.026906509930836</v>
       </c>
       <c r="G79" t="n">
-        <v>1.699270268216461</v>
+        <v>1.594470559037188</v>
       </c>
       <c r="H79" t="n">
-        <v>2.405110258832816</v>
+        <v>2.136409500904626</v>
       </c>
       <c r="I79" t="n">
-        <v>0.2954110954983223</v>
+        <v>0.318373137582303</v>
       </c>
       <c r="J79" t="n">
-        <v>0.3946047253581813</v>
+        <v>0.4047190344752077</v>
       </c>
       <c r="K79" t="n">
-        <v>5.63</v>
+        <v>4.95</v>
       </c>
       <c r="L79" t="n">
-        <v>0.001166666666666667</v>
+        <v>0.001333333333333333</v>
       </c>
       <c r="M79" t="n">
-        <v>0.001333333333333333</v>
+        <v>0.0015</v>
       </c>
       <c r="N79" t="n">
         <v>1.1842378929335e-18</v>
@@ -4707,10 +4707,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C81" t="n">
-        <v>9.950248756218906</v>
+        <v>10.02599331600446</v>
       </c>
       <c r="D81" t="n">
         <v>7.05</v>
@@ -4719,28 +4719,28 @@
         <v>3.69</v>
       </c>
       <c r="F81" t="n">
-        <v>1.37421146220556</v>
+        <v>1.334133613998238</v>
       </c>
       <c r="G81" t="n">
-        <v>1.050591670033062</v>
+        <v>0.9921959371907234</v>
       </c>
       <c r="H81" t="n">
-        <v>1.482902559172382</v>
+        <v>1.42406799095308</v>
       </c>
       <c r="I81" t="n">
-        <v>0.1742274743006736</v>
+        <v>0.1657958305740162</v>
       </c>
       <c r="J81" t="n">
-        <v>0.2278957648765439</v>
+        <v>0.2229335782767201</v>
       </c>
       <c r="K81" t="n">
-        <v>6.37</v>
+        <v>6.21</v>
       </c>
       <c r="L81" t="n">
-        <v>0.0006666666666666666</v>
+        <v>0.0008333333333333334</v>
       </c>
       <c r="M81" t="n">
-        <v>0.001166666666666667</v>
+        <v>0.001333333333333333</v>
       </c>
       <c r="N81" t="n">
         <v>1.1842378929335e-17</v>
@@ -5131,40 +5131,40 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C89" t="n">
-        <v>9.228994424149201</v>
+        <v>11.5362430301865</v>
       </c>
       <c r="D89" t="n">
-        <v>10.61</v>
+        <v>8.23</v>
       </c>
       <c r="E89" t="n">
-        <v>4.25</v>
+        <v>2.38</v>
       </c>
       <c r="F89" t="n">
-        <v>2.218094420249701</v>
+        <v>2.558499994571472</v>
       </c>
       <c r="G89" t="n">
-        <v>1.862474832044718</v>
+        <v>1.745613231949035</v>
       </c>
       <c r="H89" t="n">
-        <v>2.303876650137246</v>
+        <v>2.673062122568631</v>
       </c>
       <c r="I89" t="n">
-        <v>0.2864794973343153</v>
+        <v>0.3356303080078898</v>
       </c>
       <c r="J89" t="n">
-        <v>0.341179683945349</v>
+        <v>0.4919246288351224</v>
       </c>
       <c r="K89" t="n">
-        <v>6.154999999999999</v>
+        <v>5.625</v>
       </c>
       <c r="L89" t="n">
-        <v>0.001</v>
+        <v>0.001333333333333333</v>
       </c>
       <c r="M89" t="n">
-        <v>0.001166666666666667</v>
+        <v>0.0015</v>
       </c>
       <c r="N89" t="n">
         <v>-1.776356839400251e-17</v>
@@ -5237,40 +5237,40 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C91" t="n">
-        <v>10.22921007766622</v>
+        <v>11.36578897518469</v>
       </c>
       <c r="D91" t="n">
         <v>8</v>
       </c>
       <c r="E91" t="n">
-        <v>3.11</v>
+        <v>2.92</v>
       </c>
       <c r="F91" t="n">
-        <v>1.961584181216804</v>
+        <v>2.35174875831204</v>
       </c>
       <c r="G91" t="n">
-        <v>1.471292893266931</v>
+        <v>1.729081001894102</v>
       </c>
       <c r="H91" t="n">
-        <v>2.04511220439648</v>
+        <v>2.493563937642488</v>
       </c>
       <c r="I91" t="n">
-        <v>0.2508360681834131</v>
+        <v>0.3275394964754881</v>
       </c>
       <c r="J91" t="n">
-        <v>0.3344242779115597</v>
+        <v>0.4454913351604546</v>
       </c>
       <c r="K91" t="n">
-        <v>6.04</v>
+        <v>5.32</v>
       </c>
       <c r="L91" t="n">
-        <v>0.001</v>
+        <v>0.001166666666666667</v>
       </c>
       <c r="M91" t="n">
-        <v>0.001333333333333333</v>
+        <v>0.0015</v>
       </c>
       <c r="N91" t="n">
         <v>-2.368475785867001e-18</v>
@@ -5290,10 +5290,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C92" t="n">
-        <v>9.921455146754859</v>
+        <v>9.830693610049154</v>
       </c>
       <c r="D92" t="n">
         <v>9.300000000000001</v>
@@ -5302,28 +5302,28 @@
         <v>3.87</v>
       </c>
       <c r="F92" t="n">
-        <v>3.040178566184183</v>
+        <v>2.987618198498597</v>
       </c>
       <c r="G92" t="n">
-        <v>1.975592135465791</v>
+        <v>1.855572687878327</v>
       </c>
       <c r="H92" t="n">
-        <v>3.247827112452409</v>
+        <v>3.193052446887058</v>
       </c>
       <c r="I92" t="n">
-        <v>0.3266791460050916</v>
+        <v>0.3040261094284535</v>
       </c>
       <c r="J92" t="n">
-        <v>0.5027165880420311</v>
+        <v>0.4895059855541121</v>
       </c>
       <c r="K92" t="n">
-        <v>6.529999999999999</v>
+        <v>6.55</v>
       </c>
       <c r="L92" t="n">
-        <v>0.001166666666666667</v>
+        <v>0.001333333333333333</v>
       </c>
       <c r="M92" t="n">
-        <v>0.001166666666666667</v>
+        <v>0.001333333333333333</v>
       </c>
       <c r="N92" t="n">
         <v>1.776356839400251e-17</v>
@@ -5343,40 +5343,40 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="n">
-        <v>9.302325581395349</v>
+        <v>9.858287122612447</v>
       </c>
       <c r="D93" t="n">
         <v>10.17</v>
       </c>
       <c r="E93" t="n">
-        <v>4.78</v>
+        <v>3.54</v>
       </c>
       <c r="F93" t="n">
-        <v>2.247098128698433</v>
+        <v>2.134221169419889</v>
       </c>
       <c r="G93" t="n">
-        <v>1.821793987621359</v>
+        <v>1.975680262593115</v>
       </c>
       <c r="H93" t="n">
-        <v>2.44920191082728</v>
+        <v>2.269770284160303</v>
       </c>
       <c r="I93" t="n">
-        <v>0.2824486802513735</v>
+        <v>0.3246137215186881</v>
       </c>
       <c r="J93" t="n">
-        <v>0.3483873067749508</v>
+        <v>0.3506627511883161</v>
       </c>
       <c r="K93" t="n">
-        <v>6.15</v>
+        <v>6.04</v>
       </c>
       <c r="L93" t="n">
-        <v>0.0005</v>
+        <v>0.0006666666666666666</v>
       </c>
       <c r="M93" t="n">
-        <v>0.0008333333333333334</v>
+        <v>0.001</v>
       </c>
       <c r="N93" t="n">
         <v>7.105427357601002e-18</v>
@@ -5608,40 +5608,40 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C98" t="n">
-        <v>10.75991930060525</v>
+        <v>12.1049092131809</v>
       </c>
       <c r="D98" t="n">
         <v>9.66</v>
       </c>
       <c r="E98" t="n">
-        <v>3.62</v>
+        <v>2.85</v>
       </c>
       <c r="F98" t="n">
-        <v>2.821709208466184</v>
+        <v>3.391200008846426</v>
       </c>
       <c r="G98" t="n">
-        <v>1.981283404405192</v>
+        <v>2.041568024827975</v>
       </c>
       <c r="H98" t="n">
-        <v>3.047728271852269</v>
+        <v>3.625303681860912</v>
       </c>
       <c r="I98" t="n">
-        <v>0.3553074923838049</v>
+        <v>0.4118832598845948</v>
       </c>
       <c r="J98" t="n">
-        <v>0.5060227228811807</v>
+        <v>0.6841694705137376</v>
       </c>
       <c r="K98" t="n">
-        <v>5.34</v>
+        <v>4.01</v>
       </c>
       <c r="L98" t="n">
-        <v>0.001</v>
+        <v>0.001166666666666667</v>
       </c>
       <c r="M98" t="n">
-        <v>0.001166666666666667</v>
+        <v>0.001333333333333333</v>
       </c>
       <c r="N98" t="n">
         <v>2.368475785867001e-18</v>
@@ -5661,10 +5661,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C99" t="n">
-        <v>10.8499095840868</v>
+        <v>11.09262340543539</v>
       </c>
       <c r="D99" t="n">
         <v>7.890000000000001</v>
@@ -5673,28 +5673,28 @@
         <v>3.57</v>
       </c>
       <c r="F99" t="n">
-        <v>1.534063232073567</v>
+        <v>1.450015325589507</v>
       </c>
       <c r="G99" t="n">
-        <v>1.410664736923696</v>
+        <v>1.383935210429544</v>
       </c>
       <c r="H99" t="n">
-        <v>1.581064288925117</v>
+        <v>1.479307270312696</v>
       </c>
       <c r="I99" t="n">
-        <v>0.2550930808180282</v>
+        <v>0.2558578684469485</v>
       </c>
       <c r="J99" t="n">
-        <v>0.2774074560711695</v>
+        <v>0.268074565647903</v>
       </c>
       <c r="K99" t="n">
-        <v>5.87</v>
+        <v>5.25</v>
       </c>
       <c r="L99" t="n">
         <v>0.001166666666666667</v>
       </c>
       <c r="M99" t="n">
-        <v>0.001333333333333333</v>
+        <v>0.0015</v>
       </c>
       <c r="N99" t="n">
         <v>-1.776356839400251e-17</v>
@@ -5820,10 +5820,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C102" t="n">
-        <v>12.98701298701299</v>
+        <v>13.23706377858003</v>
       </c>
       <c r="D102" t="n">
         <v>6.84</v>
@@ -5832,28 +5832,28 @@
         <v>3.21</v>
       </c>
       <c r="F102" t="n">
-        <v>1.985279157532596</v>
+        <v>2.135050350694334</v>
       </c>
       <c r="G102" t="n">
-        <v>1.343602123646233</v>
+        <v>1.30710436392119</v>
       </c>
       <c r="H102" t="n">
-        <v>2.09401793476348</v>
+        <v>2.246364964905648</v>
       </c>
       <c r="I102" t="n">
-        <v>0.2908229704861977</v>
+        <v>0.288370397174751</v>
       </c>
       <c r="J102" t="n">
-        <v>0.4297141033620338</v>
+        <v>0.4710299610436758</v>
       </c>
       <c r="K102" t="n">
-        <v>4.414999999999999</v>
+        <v>4.27</v>
       </c>
       <c r="L102" t="n">
-        <v>0.001333333333333333</v>
+        <v>0.0015</v>
       </c>
       <c r="M102" t="n">
-        <v>0.001333333333333333</v>
+        <v>0.0015</v>
       </c>
       <c r="N102" t="n">
         <v>-1.657933050106901e-17</v>
@@ -5873,40 +5873,40 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="n">
-        <v>8.246612998232868</v>
+        <v>9.424700569408992</v>
       </c>
       <c r="D103" t="n">
-        <v>11.73</v>
+        <v>10.48</v>
       </c>
       <c r="E103" t="n">
-        <v>4.16</v>
+        <v>3.859999999999999</v>
       </c>
       <c r="F103" t="n">
-        <v>3.250187174097312</v>
+        <v>3.235969715556683</v>
       </c>
       <c r="G103" t="n">
-        <v>2.857358087131405</v>
+        <v>2.221633488481585</v>
       </c>
       <c r="H103" t="n">
-        <v>3.559828179374205</v>
+        <v>3.49482951420142</v>
       </c>
       <c r="I103" t="n">
-        <v>0.3927254390323942</v>
+        <v>0.3489705067318414</v>
       </c>
       <c r="J103" t="n">
-        <v>0.4467172632766774</v>
+        <v>0.5083007603466221</v>
       </c>
       <c r="K103" t="n">
-        <v>6.84</v>
+        <v>6.49</v>
       </c>
       <c r="L103" t="n">
-        <v>0.0008333333333333334</v>
+        <v>0.001</v>
       </c>
       <c r="M103" t="n">
-        <v>0.001</v>
+        <v>0.001166666666666667</v>
       </c>
       <c r="N103" t="n">
         <v>-2.427687680513676e-17</v>
@@ -5979,10 +5979,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C105" t="n">
-        <v>8.606777837547067</v>
+        <v>9.682625067240453</v>
       </c>
       <c r="D105" t="n">
         <v>10.3</v>
@@ -5991,28 +5991,28 @@
         <v>2.92</v>
       </c>
       <c r="F105" t="n">
-        <v>3.27919415187852</v>
+        <v>3.265689054395718</v>
       </c>
       <c r="G105" t="n">
-        <v>2.204407516771797</v>
+        <v>2.495606138796746</v>
       </c>
       <c r="H105" t="n">
-        <v>3.540724300397953</v>
+        <v>3.490247637550747</v>
       </c>
       <c r="I105" t="n">
-        <v>0.3162140960045612</v>
+        <v>0.4027336426245421</v>
       </c>
       <c r="J105" t="n">
-        <v>0.4703882591900334</v>
+        <v>0.5270073783317458</v>
       </c>
       <c r="K105" t="n">
-        <v>6.95</v>
+        <v>6.36</v>
       </c>
       <c r="L105" t="n">
         <v>0.001166666666666667</v>
       </c>
       <c r="M105" t="n">
-        <v>0.001166666666666667</v>
+        <v>0.001333333333333333</v>
       </c>
       <c r="N105" t="n">
         <v>-3.079018521627101e-17</v>
@@ -6032,40 +6032,40 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="n">
-        <v>7.360457984052342</v>
+        <v>8.587200981394398</v>
       </c>
       <c r="D106" t="n">
         <v>10.5</v>
       </c>
       <c r="E106" t="n">
-        <v>5.51</v>
+        <v>3.03</v>
       </c>
       <c r="F106" t="n">
-        <v>2.450681537858398</v>
+        <v>3.04608491893009</v>
       </c>
       <c r="G106" t="n">
-        <v>1.857884998235</v>
+        <v>2.637357985343882</v>
       </c>
       <c r="H106" t="n">
-        <v>2.72251354450258</v>
+        <v>3.327293194174508</v>
       </c>
       <c r="I106" t="n">
-        <v>0.2279147411451646</v>
+        <v>0.3774587180005556</v>
       </c>
       <c r="J106" t="n">
-        <v>0.3006356415283253</v>
+        <v>0.4359557234207858</v>
       </c>
       <c r="K106" t="n">
-        <v>8.690000000000001</v>
+        <v>6.4</v>
       </c>
       <c r="L106" t="n">
-        <v>0.0006666666666666666</v>
+        <v>0.0008333333333333334</v>
       </c>
       <c r="M106" t="n">
-        <v>0.0006666666666666666</v>
+        <v>0.0008333333333333334</v>
       </c>
       <c r="N106" t="n">
         <v>9.473903143468002e-18</v>
@@ -6244,40 +6244,40 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C110" t="n">
-        <v>9.010941857970392</v>
+        <v>10.64249113125739</v>
       </c>
       <c r="D110" t="n">
         <v>8.58</v>
       </c>
       <c r="E110" t="n">
-        <v>5.4</v>
+        <v>2.81</v>
       </c>
       <c r="F110" t="n">
-        <v>1.353575511992835</v>
+        <v>2.084679231920345</v>
       </c>
       <c r="G110" t="n">
-        <v>1.168908729990335</v>
+        <v>1.864160520031589</v>
       </c>
       <c r="H110" t="n">
-        <v>1.391857272376254</v>
+        <v>2.147815750943269</v>
       </c>
       <c r="I110" t="n">
-        <v>0.1755494767202821</v>
+        <v>0.3306551966946059</v>
       </c>
       <c r="J110" t="n">
-        <v>0.2032831706489991</v>
+        <v>0.369769670620479</v>
       </c>
       <c r="K110" t="n">
-        <v>6.68</v>
+        <v>5.55</v>
       </c>
       <c r="L110" t="n">
-        <v>0.0006666666666666666</v>
+        <v>0.001166666666666667</v>
       </c>
       <c r="M110" t="n">
-        <v>0.0008333333333333334</v>
+        <v>0.001166666666666667</v>
       </c>
       <c r="N110" t="n">
         <v>-3.552713678800501e-18</v>
@@ -6456,40 +6456,40 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C114" t="n">
-        <v>17.45539177657099</v>
+        <v>18.61908456167572</v>
       </c>
       <c r="D114" t="n">
         <v>5.81</v>
       </c>
       <c r="E114" t="n">
-        <v>2.37</v>
+        <v>2.28</v>
       </c>
       <c r="F114" t="n">
-        <v>1.651127320521173</v>
+        <v>1.389659430699959</v>
       </c>
       <c r="G114" t="n">
-        <v>0.9959737996171433</v>
+        <v>0.8932450205104233</v>
       </c>
       <c r="H114" t="n">
-        <v>1.713211911861768</v>
+        <v>1.438182384619062</v>
       </c>
       <c r="I114" t="n">
-        <v>0.2897518811919541</v>
+        <v>0.2771900761863222</v>
       </c>
       <c r="J114" t="n">
-        <v>0.4803512375449495</v>
+        <v>0.4312364408688777</v>
       </c>
       <c r="K114" t="n">
-        <v>3.11</v>
+        <v>3.025</v>
       </c>
       <c r="L114" t="n">
         <v>0.001833333333333333</v>
       </c>
       <c r="M114" t="n">
-        <v>0.002166666666666667</v>
+        <v>0.002333333333333334</v>
       </c>
       <c r="N114" t="n">
         <v>1.717144944753576e-17</v>
@@ -6668,40 +6668,40 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C118" t="n">
-        <v>15.5440414507772</v>
+        <v>16.65433012583272</v>
       </c>
       <c r="D118" t="n">
-        <v>7.12</v>
+        <v>5.98</v>
       </c>
       <c r="E118" t="n">
         <v>2.52</v>
       </c>
       <c r="F118" t="n">
-        <v>1.449970821987596</v>
+        <v>1.26335720545356</v>
       </c>
       <c r="G118" t="n">
-        <v>1.250421467407628</v>
+        <v>0.8418556600635009</v>
       </c>
       <c r="H118" t="n">
-        <v>1.508870778311061</v>
+        <v>1.310745111473908</v>
       </c>
       <c r="I118" t="n">
-        <v>0.3239433853387638</v>
+        <v>0.2336757013499725</v>
       </c>
       <c r="J118" t="n">
-        <v>0.3756401093232114</v>
+        <v>0.3506727994412177</v>
       </c>
       <c r="K118" t="n">
-        <v>3.47</v>
+        <v>3.42</v>
       </c>
       <c r="L118" t="n">
-        <v>0.0015</v>
+        <v>0.001666666666666667</v>
       </c>
       <c r="M118" t="n">
-        <v>0.001833333333333333</v>
+        <v>0.002</v>
       </c>
       <c r="N118" t="n">
         <v>0</v>
@@ -6721,40 +6721,40 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C119" t="n">
-        <v>14.14816270387109</v>
+        <v>15.32008024803939</v>
       </c>
       <c r="D119" t="n">
-        <v>8.529999999999999</v>
+        <v>8.41</v>
       </c>
       <c r="E119" t="n">
-        <v>2.72</v>
+        <v>2.3</v>
       </c>
       <c r="F119" t="n">
-        <v>3.430070235167469</v>
+        <v>2.720016968272865</v>
       </c>
       <c r="G119" t="n">
-        <v>2.121288023533786</v>
+        <v>1.697108886143895</v>
       </c>
       <c r="H119" t="n">
-        <v>3.597463247648518</v>
+        <v>2.830322080068464</v>
       </c>
       <c r="I119" t="n">
-        <v>0.5002054683121524</v>
+        <v>0.4333307387564204</v>
       </c>
       <c r="J119" t="n">
-        <v>0.8088198628809122</v>
+        <v>0.694514637166152</v>
       </c>
       <c r="K119" t="n">
         <v>3.21</v>
       </c>
       <c r="L119" t="n">
-        <v>0.001333333333333333</v>
+        <v>0.001666666666666667</v>
       </c>
       <c r="M119" t="n">
-        <v>0.0015</v>
+        <v>0.001833333333333333</v>
       </c>
       <c r="N119" t="n">
         <v>-2.368475785867001e-18</v>
@@ -6774,40 +6774,40 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C120" t="n">
-        <v>13.45565749235474</v>
+        <v>14.67889908256881</v>
       </c>
       <c r="D120" t="n">
-        <v>8.91</v>
+        <v>6.93</v>
       </c>
       <c r="E120" t="n">
         <v>2.26</v>
       </c>
       <c r="F120" t="n">
-        <v>2.598449537705129</v>
+        <v>2.266097967873411</v>
       </c>
       <c r="G120" t="n">
-        <v>2.147530928976133</v>
+        <v>1.555968713169913</v>
       </c>
       <c r="H120" t="n">
-        <v>2.724399220215552</v>
+        <v>2.362927306233828</v>
       </c>
       <c r="I120" t="n">
-        <v>0.4816073439090206</v>
+        <v>0.3806651286042602</v>
       </c>
       <c r="J120" t="n">
-        <v>0.5827307831754622</v>
+        <v>0.5543970563604674</v>
       </c>
       <c r="K120" t="n">
-        <v>3.76</v>
+        <v>3.61</v>
       </c>
       <c r="L120" t="n">
-        <v>0.0015</v>
+        <v>0.001666666666666667</v>
       </c>
       <c r="M120" t="n">
-        <v>0.0015</v>
+        <v>0.001666666666666667</v>
       </c>
       <c r="N120" t="n">
         <v>1.1842378929335e-18</v>
@@ -6827,40 +6827,40 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C121" t="n">
-        <v>16.82242990654206</v>
+        <v>17.94392523364486</v>
       </c>
       <c r="D121" t="n">
-        <v>6.21</v>
+        <v>5.12</v>
       </c>
       <c r="E121" t="n">
-        <v>2.59</v>
+        <v>2.26</v>
       </c>
       <c r="F121" t="n">
-        <v>1.080819794679681</v>
+        <v>0.8797651201693933</v>
       </c>
       <c r="G121" t="n">
-        <v>0.9561953376844733</v>
+        <v>0.6768739419813216</v>
       </c>
       <c r="H121" t="n">
-        <v>1.118967341832599</v>
+        <v>0.9078110774720435</v>
       </c>
       <c r="I121" t="n">
-        <v>0.268092150752656</v>
+        <v>0.202429590125255</v>
       </c>
       <c r="J121" t="n">
-        <v>0.3030335872933686</v>
+        <v>0.2631073256581363</v>
       </c>
       <c r="K121" t="n">
-        <v>3.32</v>
+        <v>3.285</v>
       </c>
       <c r="L121" t="n">
-        <v>0.001333333333333333</v>
+        <v>0.0015</v>
       </c>
       <c r="M121" t="n">
-        <v>0.001666666666666667</v>
+        <v>0.001833333333333333</v>
       </c>
       <c r="N121" t="n">
         <v>0</v>
@@ -7039,40 +7039,40 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C125" t="n">
-        <v>11.26549004881712</v>
+        <v>12.39203905369884</v>
       </c>
       <c r="D125" t="n">
         <v>10.03</v>
       </c>
       <c r="E125" t="n">
-        <v>3.62</v>
+        <v>2.75</v>
       </c>
       <c r="F125" t="n">
-        <v>2.382846104043556</v>
+        <v>2.366389655149802</v>
       </c>
       <c r="G125" t="n">
-        <v>1.930360933435334</v>
+        <v>1.990833082816428</v>
       </c>
       <c r="H125" t="n">
-        <v>2.4894901307519</v>
+        <v>2.373421346682651</v>
       </c>
       <c r="I125" t="n">
-        <v>0.3624410314373514</v>
+        <v>0.4111746885276137</v>
       </c>
       <c r="J125" t="n">
-        <v>0.4473988178827556</v>
+        <v>0.4887398837147545</v>
       </c>
       <c r="K125" t="n">
-        <v>4.880000000000001</v>
+        <v>4.23</v>
       </c>
       <c r="L125" t="n">
-        <v>0.0015</v>
+        <v>0.001666666666666667</v>
       </c>
       <c r="M125" t="n">
-        <v>0.0015</v>
+        <v>0.001666666666666667</v>
       </c>
       <c r="N125" t="n">
         <v>7.105427357601002e-18</v>
@@ -7516,40 +7516,40 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C134" t="n">
-        <v>13.57722044125966</v>
+        <v>14.7086554780313</v>
       </c>
       <c r="D134" t="n">
-        <v>12.3</v>
+        <v>7.53</v>
       </c>
       <c r="E134" t="n">
         <v>3.04</v>
       </c>
       <c r="F134" t="n">
-        <v>3.183173088145053</v>
+        <v>1.496649034788495</v>
       </c>
       <c r="G134" t="n">
-        <v>2.630414617623249</v>
+        <v>1.36322205050181</v>
       </c>
       <c r="H134" t="n">
-        <v>3.325514861026649</v>
+        <v>1.53988857330062</v>
       </c>
       <c r="I134" t="n">
-        <v>0.5952286519230432</v>
+        <v>0.3341860580147752</v>
       </c>
       <c r="J134" t="n">
-        <v>0.7203107120071776</v>
+        <v>0.3668949170705343</v>
       </c>
       <c r="K134" t="n">
-        <v>3.47</v>
+        <v>3.63</v>
       </c>
       <c r="L134" t="n">
-        <v>0.001333333333333333</v>
+        <v>0.0015</v>
       </c>
       <c r="M134" t="n">
-        <v>0.0015</v>
+        <v>0.001666666666666667</v>
       </c>
       <c r="N134" t="n">
         <v>-1.1842378929335e-17</v>
@@ -7569,10 +7569,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C135" t="n">
-        <v>14.78672985781991</v>
+        <v>15.92417061611375</v>
       </c>
       <c r="D135" t="n">
         <v>6.91</v>
@@ -7581,28 +7581,28 @@
         <v>2.48</v>
       </c>
       <c r="F135" t="n">
-        <v>1.923037961143773</v>
+        <v>1.812552386510844</v>
       </c>
       <c r="G135" t="n">
-        <v>1.553716800911896</v>
+        <v>1.393988072851682</v>
       </c>
       <c r="H135" t="n">
-        <v>1.990926957855348</v>
+        <v>1.870693344656892</v>
       </c>
       <c r="I135" t="n">
-        <v>0.3829065101773395</v>
+        <v>0.3699683984819631</v>
       </c>
       <c r="J135" t="n">
-        <v>0.4739240472960958</v>
+        <v>0.4810565575573803</v>
       </c>
       <c r="K135" t="n">
-        <v>3.23</v>
+        <v>3.15</v>
       </c>
       <c r="L135" t="n">
-        <v>0.001166666666666667</v>
+        <v>0.0015</v>
       </c>
       <c r="M135" t="n">
-        <v>0.001333333333333333</v>
+        <v>0.001666666666666667</v>
       </c>
       <c r="N135" t="n">
         <v>-6.513308411134252e-18</v>
@@ -7728,10 +7728,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C138" t="n">
-        <v>14.12318556296587</v>
+        <v>15.30011769321302</v>
       </c>
       <c r="D138" t="n">
         <v>7.839999999999999</v>
@@ -7740,28 +7740,28 @@
         <v>2.54</v>
       </c>
       <c r="F138" t="n">
-        <v>2.163253021808507</v>
+        <v>1.985654803836759</v>
       </c>
       <c r="G138" t="n">
-        <v>1.791265846638441</v>
+        <v>1.566135616487528</v>
       </c>
       <c r="H138" t="n">
-        <v>2.230606929229638</v>
+        <v>2.03909572203866</v>
       </c>
       <c r="I138" t="n">
-        <v>0.4216396657446311</v>
+        <v>0.3993676542631985</v>
       </c>
       <c r="J138" t="n">
-        <v>0.5092003974441365</v>
+        <v>0.506345869946604</v>
       </c>
       <c r="K138" t="n">
-        <v>3.465</v>
+        <v>3.44</v>
       </c>
       <c r="L138" t="n">
-        <v>0.0015</v>
+        <v>0.001666666666666667</v>
       </c>
       <c r="M138" t="n">
-        <v>0.001833333333333333</v>
+        <v>0.002</v>
       </c>
       <c r="N138" t="n">
         <v>2.960594732333751e-17</v>
@@ -7781,10 +7781,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C139" t="n">
-        <v>15.13975155279503</v>
+        <v>16.30434782608695</v>
       </c>
       <c r="D139" t="n">
         <v>6.23</v>
@@ -7793,28 +7793,28 @@
         <v>2.56</v>
       </c>
       <c r="F139" t="n">
-        <v>1.55781363883275</v>
+        <v>1.493035112163758</v>
       </c>
       <c r="G139" t="n">
-        <v>1.379204992108284</v>
+        <v>1.251712672854524</v>
       </c>
       <c r="H139" t="n">
-        <v>1.621407917941576</v>
+        <v>1.548972777897232</v>
       </c>
       <c r="I139" t="n">
-        <v>0.3480136820149008</v>
+        <v>0.3401393132756857</v>
       </c>
       <c r="J139" t="n">
-        <v>0.3930818576247234</v>
+        <v>0.4057160630879777</v>
       </c>
       <c r="K139" t="n">
-        <v>3.38</v>
+        <v>3.23</v>
       </c>
       <c r="L139" t="n">
-        <v>0.001333333333333333</v>
+        <v>0.001666666666666667</v>
       </c>
       <c r="M139" t="n">
-        <v>0.001666666666666667</v>
+        <v>0.002</v>
       </c>
       <c r="N139" t="n">
         <v>-2.486899575160351e-17</v>
@@ -7834,10 +7834,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C140" t="n">
-        <v>12.7265715387582</v>
+        <v>15.04049363671423</v>
       </c>
       <c r="D140" t="n">
         <v>8.109999999999999</v>
@@ -7846,25 +7846,25 @@
         <v>2.69</v>
       </c>
       <c r="F140" t="n">
-        <v>2.111655748459014</v>
+        <v>2.163877692169006</v>
       </c>
       <c r="G140" t="n">
-        <v>1.990293262996002</v>
+        <v>1.854824616769564</v>
       </c>
       <c r="H140" t="n">
-        <v>2.213209082857841</v>
+        <v>2.259366363305509</v>
       </c>
       <c r="I140" t="n">
-        <v>0.4221601599104516</v>
+        <v>0.4649579640957255</v>
       </c>
       <c r="J140" t="n">
-        <v>0.447902299133227</v>
+        <v>0.5424298109949303</v>
       </c>
       <c r="K140" t="n">
-        <v>3.63</v>
+        <v>3.39</v>
       </c>
       <c r="L140" t="n">
-        <v>0.001333333333333333</v>
+        <v>0.001166666666666667</v>
       </c>
       <c r="M140" t="n">
         <v>0.0015</v>
@@ -7993,10 +7993,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C143" t="n">
-        <v>17.33102253032929</v>
+        <v>17.58886038842067</v>
       </c>
       <c r="D143" t="n">
         <v>5.54</v>
@@ -8005,28 +8005,28 @@
         <v>2.33</v>
       </c>
       <c r="F143" t="n">
-        <v>1.077072752550037</v>
+        <v>1.228606256427719</v>
       </c>
       <c r="G143" t="n">
-        <v>0.916882918214908</v>
+        <v>0.9087564763639009</v>
       </c>
       <c r="H143" t="n">
-        <v>1.100202778512286</v>
+        <v>1.271696654455134</v>
       </c>
       <c r="I143" t="n">
-        <v>0.2648419752209439</v>
+        <v>0.266399846497296</v>
       </c>
       <c r="J143" t="n">
-        <v>0.311112869020808</v>
+        <v>0.3601630652774551</v>
       </c>
       <c r="K143" t="n">
-        <v>3.23</v>
+        <v>3.215</v>
       </c>
       <c r="L143" t="n">
-        <v>0.001666666666666667</v>
+        <v>0.001833333333333333</v>
       </c>
       <c r="M143" t="n">
-        <v>0.001833333333333333</v>
+        <v>0.002</v>
       </c>
       <c r="N143" t="n">
         <v>3.552713678800501e-18</v>
@@ -8099,40 +8099,40 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C145" t="n">
-        <v>17.11026615969582</v>
+        <v>18.25095057034221</v>
       </c>
       <c r="D145" t="n">
         <v>5.41</v>
       </c>
       <c r="E145" t="n">
-        <v>2.6</v>
+        <v>1.87</v>
       </c>
       <c r="F145" t="n">
-        <v>1.200523695250178</v>
+        <v>1.279234145885733</v>
       </c>
       <c r="G145" t="n">
-        <v>0.8597729489868379</v>
+        <v>0.8204104663723722</v>
       </c>
       <c r="H145" t="n">
-        <v>1.245150593301871</v>
+        <v>1.32356912856686</v>
       </c>
       <c r="I145" t="n">
-        <v>0.2451823999011895</v>
+        <v>0.2495545144858927</v>
       </c>
       <c r="J145" t="n">
-        <v>0.3423546659458683</v>
+        <v>0.3891206527409072</v>
       </c>
       <c r="K145" t="n">
-        <v>3.22</v>
+        <v>3.215</v>
       </c>
       <c r="L145" t="n">
-        <v>0.001333333333333333</v>
+        <v>0.001666666666666667</v>
       </c>
       <c r="M145" t="n">
-        <v>0.001666666666666667</v>
+        <v>0.001833333333333333</v>
       </c>
       <c r="N145" t="n">
         <v>7.105427357601002e-18</v>
@@ -8205,40 +8205,40 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C147" t="n">
-        <v>15.51533062430735</v>
+        <v>16.62356852604359</v>
       </c>
       <c r="D147" t="n">
-        <v>7.07</v>
+        <v>5.04</v>
       </c>
       <c r="E147" t="n">
         <v>2.17</v>
       </c>
       <c r="F147" t="n">
-        <v>1.233453563093355</v>
+        <v>1.293453295860128</v>
       </c>
       <c r="G147" t="n">
-        <v>1.42228650457596</v>
+        <v>1.128826613705366</v>
       </c>
       <c r="H147" t="n">
-        <v>1.27991235677512</v>
+        <v>1.339078123105676</v>
       </c>
       <c r="I147" t="n">
-        <v>0.3677874226831075</v>
+        <v>0.3127521094492149</v>
       </c>
       <c r="J147" t="n">
-        <v>0.3189573306853892</v>
+        <v>0.358363491649463</v>
       </c>
       <c r="K147" t="n">
-        <v>3.715</v>
+        <v>3.57</v>
       </c>
       <c r="L147" t="n">
         <v>0.0008333333333333334</v>
       </c>
       <c r="M147" t="n">
-        <v>0.001333333333333333</v>
+        <v>0.0015</v>
       </c>
       <c r="N147" t="n">
         <v>0</v>
@@ -8364,40 +8364,40 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C150" t="n">
-        <v>15.59888579387187</v>
+        <v>16.71309192200557</v>
       </c>
       <c r="D150" t="n">
         <v>6.67</v>
       </c>
       <c r="E150" t="n">
-        <v>2.46</v>
+        <v>2.23</v>
       </c>
       <c r="F150" t="n">
-        <v>2.08565982918522</v>
+        <v>1.796800728278697</v>
       </c>
       <c r="G150" t="n">
-        <v>1.436419732651863</v>
+        <v>1.346381393641065</v>
       </c>
       <c r="H150" t="n">
-        <v>2.147427202431689</v>
+        <v>1.841260467693289</v>
       </c>
       <c r="I150" t="n">
-        <v>0.3734424560283394</v>
+        <v>0.3750365999000182</v>
       </c>
       <c r="J150" t="n">
-        <v>0.5422328246721092</v>
+        <v>0.500501595620807</v>
       </c>
       <c r="K150" t="n">
-        <v>3.24</v>
+        <v>3.21</v>
       </c>
       <c r="L150" t="n">
-        <v>0.001666666666666667</v>
+        <v>0.001833333333333333</v>
       </c>
       <c r="M150" t="n">
-        <v>0.001666666666666667</v>
+        <v>0.001833333333333333</v>
       </c>
       <c r="N150" t="n">
         <v>1.1842378929335e-18</v>
@@ -8417,10 +8417,10 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C151" t="n">
-        <v>14.99375260308205</v>
+        <v>16.24323198667222</v>
       </c>
       <c r="D151" t="n">
         <v>7</v>
@@ -8429,28 +8429,28 @@
         <v>2.29</v>
       </c>
       <c r="F151" t="n">
-        <v>2.244692730541411</v>
+        <v>2.167865693871894</v>
       </c>
       <c r="G151" t="n">
-        <v>1.566721146699422</v>
+        <v>1.512622107806719</v>
       </c>
       <c r="H151" t="n">
-        <v>2.351330764404779</v>
+        <v>2.261729527274527</v>
       </c>
       <c r="I151" t="n">
-        <v>0.3915171545271359</v>
+        <v>0.4094978634212276</v>
       </c>
       <c r="J151" t="n">
-        <v>0.560939457861244</v>
+        <v>0.5868857563584886</v>
       </c>
       <c r="K151" t="n">
-        <v>3.33</v>
+        <v>3.17</v>
       </c>
       <c r="L151" t="n">
-        <v>0.0015</v>
+        <v>0.001333333333333333</v>
       </c>
       <c r="M151" t="n">
-        <v>0.001666666666666667</v>
+        <v>0.001833333333333333</v>
       </c>
       <c r="N151" t="n">
         <v>-2.368475785867001e-18</v>
@@ -8470,40 +8470,40 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C152" t="n">
-        <v>13.36032388663967</v>
+        <v>14.5748987854251</v>
       </c>
       <c r="D152" t="n">
-        <v>7.49</v>
+        <v>5.88</v>
       </c>
       <c r="E152" t="n">
-        <v>2.86</v>
+        <v>2.4</v>
       </c>
       <c r="F152" t="n">
-        <v>1.948632854080009</v>
+        <v>2.228417701990687</v>
       </c>
       <c r="G152" t="n">
-        <v>1.640911055148661</v>
+        <v>1.381088722930595</v>
       </c>
       <c r="H152" t="n">
-        <v>2.047016528186</v>
+        <v>2.335970111888498</v>
       </c>
       <c r="I152" t="n">
-        <v>0.3653850527658961</v>
+        <v>0.3354871391734238</v>
       </c>
       <c r="J152" t="n">
-        <v>0.4339061011109331</v>
+        <v>0.5413160409693978</v>
       </c>
       <c r="K152" t="n">
-        <v>4.7</v>
+        <v>3.835</v>
       </c>
       <c r="L152" t="n">
-        <v>0.001333333333333333</v>
+        <v>0.0015</v>
       </c>
       <c r="M152" t="n">
-        <v>0.001333333333333333</v>
+        <v>0.0015</v>
       </c>
       <c r="N152" t="n">
         <v>-9.473903143468002e-18</v>
@@ -8523,10 +8523,10 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C153" t="n">
-        <v>13.00492610837438</v>
+        <v>15.36945812807882</v>
       </c>
       <c r="D153" t="n">
         <v>8.34</v>
@@ -8535,28 +8535,28 @@
         <v>2.29</v>
       </c>
       <c r="F153" t="n">
-        <v>2.381665383717873</v>
+        <v>2.343846553566736</v>
       </c>
       <c r="G153" t="n">
-        <v>1.866565148754646</v>
+        <v>1.83436882179102</v>
       </c>
       <c r="H153" t="n">
-        <v>2.491944577589513</v>
+        <v>2.405865307698642</v>
       </c>
       <c r="I153" t="n">
-        <v>0.4045756972670169</v>
+        <v>0.4698875799661725</v>
       </c>
       <c r="J153" t="n">
-        <v>0.516223038835401</v>
+        <v>0.6003941910614299</v>
       </c>
       <c r="K153" t="n">
-        <v>5.18</v>
+        <v>3.14</v>
       </c>
       <c r="L153" t="n">
-        <v>0.0015</v>
+        <v>0.001666666666666667</v>
       </c>
       <c r="M153" t="n">
-        <v>0.001666666666666667</v>
+        <v>0.002</v>
       </c>
       <c r="N153" t="n">
         <v>-1.4210854715202e-17</v>
@@ -8629,40 +8629,40 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C155" t="n">
-        <v>14.04646137223123</v>
+        <v>15.1269584008644</v>
       </c>
       <c r="D155" t="n">
         <v>7.599999999999999</v>
       </c>
       <c r="E155" t="n">
-        <v>2.44</v>
+        <v>2.12</v>
       </c>
       <c r="F155" t="n">
-        <v>2.106624472151282</v>
+        <v>1.903656400800232</v>
       </c>
       <c r="G155" t="n">
-        <v>1.653656787011975</v>
+        <v>1.685981143898833</v>
       </c>
       <c r="H155" t="n">
-        <v>2.19711105083402</v>
+        <v>1.950108478245012</v>
       </c>
       <c r="I155" t="n">
-        <v>0.3871337696948619</v>
+        <v>0.4250627771399902</v>
       </c>
       <c r="J155" t="n">
-        <v>0.4931769878978329</v>
+        <v>0.4799421864074058</v>
       </c>
       <c r="K155" t="n">
-        <v>4.09</v>
+        <v>3.58</v>
       </c>
       <c r="L155" t="n">
-        <v>0.0015</v>
+        <v>0.001666666666666667</v>
       </c>
       <c r="M155" t="n">
-        <v>0.001666666666666667</v>
+        <v>0.001833333333333333</v>
       </c>
       <c r="N155" t="n">
         <v>-2.250051996573651e-17</v>
@@ -8788,40 +8788,40 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C158" t="n">
-        <v>14.74758933635848</v>
+        <v>15.88201928530913</v>
       </c>
       <c r="D158" t="n">
         <v>8.380000000000001</v>
       </c>
       <c r="E158" t="n">
-        <v>2.54</v>
+        <v>2.51</v>
       </c>
       <c r="F158" t="n">
-        <v>2.666563018819044</v>
+        <v>2.106384069004</v>
       </c>
       <c r="G158" t="n">
-        <v>1.886716045380819</v>
+        <v>1.626511976221267</v>
       </c>
       <c r="H158" t="n">
-        <v>2.741686469487293</v>
+        <v>2.145555035475998</v>
       </c>
       <c r="I158" t="n">
-        <v>0.4637418905265767</v>
+        <v>0.430538242902207</v>
       </c>
       <c r="J158" t="n">
-        <v>0.6554229390177269</v>
+        <v>0.5575605401031574</v>
       </c>
       <c r="K158" t="n">
-        <v>3.27</v>
+        <v>3.155</v>
       </c>
       <c r="L158" t="n">
         <v>0.001666666666666667</v>
       </c>
       <c r="M158" t="n">
-        <v>0.002</v>
+        <v>0.002166666666666667</v>
       </c>
       <c r="N158" t="n">
         <v>7.105427357601002e-18</v>
@@ -8841,37 +8841,37 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C159" t="n">
-        <v>15.03469545104086</v>
+        <v>17.34772552043177</v>
       </c>
       <c r="D159" t="n">
         <v>7.839999999999999</v>
       </c>
       <c r="E159" t="n">
-        <v>2.54</v>
+        <v>2.5</v>
       </c>
       <c r="F159" t="n">
-        <v>2.600258000019742</v>
+        <v>2.087347941425058</v>
       </c>
       <c r="G159" t="n">
-        <v>1.676625885215411</v>
+        <v>1.487600496805254</v>
       </c>
       <c r="H159" t="n">
-        <v>2.704845679796751</v>
+        <v>2.166021445207526</v>
       </c>
       <c r="I159" t="n">
-        <v>0.4201259928257582</v>
+        <v>0.4301080850439245</v>
       </c>
       <c r="J159" t="n">
-        <v>0.6515681187404904</v>
+        <v>0.6035123192246699</v>
       </c>
       <c r="K159" t="n">
-        <v>3.02</v>
+        <v>2.9</v>
       </c>
       <c r="L159" t="n">
-        <v>0.001333333333333333</v>
+        <v>0.001166666666666667</v>
       </c>
       <c r="M159" t="n">
         <v>0.001833333333333333</v>
@@ -9053,40 +9053,40 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C163" t="n">
-        <v>10.53042121684867</v>
+        <v>11.70046801872075</v>
       </c>
       <c r="D163" t="n">
         <v>9.25</v>
       </c>
       <c r="E163" t="n">
-        <v>2.9</v>
+        <v>2.83</v>
       </c>
       <c r="F163" t="n">
-        <v>3.101630619529024</v>
+        <v>2.732575098083613</v>
       </c>
       <c r="G163" t="n">
-        <v>2.289032425380742</v>
+        <v>2.450450298754633</v>
       </c>
       <c r="H163" t="n">
-        <v>3.315775873435529</v>
+        <v>2.898327582896346</v>
       </c>
       <c r="I163" t="n">
-        <v>0.4017412603047325</v>
+        <v>0.4778569225340548</v>
       </c>
       <c r="J163" t="n">
-        <v>0.5443579480452656</v>
+        <v>0.5328734590646672</v>
       </c>
       <c r="K163" t="n">
-        <v>5.67</v>
+        <v>4.615</v>
       </c>
       <c r="L163" t="n">
-        <v>0.001333333333333333</v>
+        <v>0.001166666666666667</v>
       </c>
       <c r="M163" t="n">
-        <v>0.001333333333333333</v>
+        <v>0.001166666666666667</v>
       </c>
       <c r="N163" t="n">
         <v>1.4210854715202e-17</v>
@@ -9106,40 +9106,40 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C164" t="n">
-        <v>8.729388942774007</v>
+        <v>11.63918525703201</v>
       </c>
       <c r="D164" t="n">
-        <v>12.54</v>
+        <v>10.37</v>
       </c>
       <c r="E164" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="F164" t="n">
-        <v>5.451698817799824</v>
+        <v>2.848230026826184</v>
       </c>
       <c r="G164" t="n">
-        <v>3.741249345695454</v>
+        <v>2.443539587214767</v>
       </c>
       <c r="H164" t="n">
-        <v>5.988825427410619</v>
+        <v>2.975308707472538</v>
       </c>
       <c r="I164" t="n">
-        <v>0.5443136778412399</v>
+        <v>0.4740134989747366</v>
       </c>
       <c r="J164" t="n">
-        <v>0.7931666563239318</v>
+        <v>0.5525179489478534</v>
       </c>
       <c r="K164" t="n">
-        <v>5.43</v>
+        <v>4.984999999999999</v>
       </c>
       <c r="L164" t="n">
-        <v>0.0008333333333333334</v>
+        <v>0.001166666666666667</v>
       </c>
       <c r="M164" t="n">
-        <v>0.0008333333333333334</v>
+        <v>0.001166666666666667</v>
       </c>
       <c r="N164" t="n">
         <v>5.921189464667502e-18</v>
@@ -9212,40 +9212,40 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C166" t="n">
-        <v>14.84814398200225</v>
+        <v>16.50095197799873</v>
       </c>
       <c r="D166" t="n">
         <v>6.02</v>
       </c>
       <c r="E166" t="n">
-        <v>2.63</v>
+        <v>2.36</v>
       </c>
       <c r="F166" t="n">
-        <v>1.966285838834222</v>
+        <v>1.718288877536797</v>
       </c>
       <c r="G166" t="n">
-        <v>1.334364676881508</v>
+        <v>1.194316669770755</v>
       </c>
       <c r="H166" t="n">
-        <v>2.055555075075019</v>
+        <v>1.793717994118429</v>
       </c>
       <c r="I166" t="n">
-        <v>0.3302139807805756</v>
+        <v>0.32845603357351</v>
       </c>
       <c r="J166" t="n">
-        <v>0.4865949207463766</v>
+        <v>0.4725567042094006</v>
       </c>
       <c r="K166" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="L166" t="n">
-        <v>0.001333333333333333</v>
+        <v>0.001666666666666667</v>
       </c>
       <c r="M166" t="n">
-        <v>0.0015</v>
+        <v>0.001833333333333333</v>
       </c>
       <c r="N166" t="n">
         <v>2.960594732333751e-18</v>
@@ -9318,40 +9318,40 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C168" t="n">
-        <v>15.68785197103781</v>
+        <v>16.89460981496379</v>
       </c>
       <c r="D168" t="n">
         <v>5.65</v>
       </c>
       <c r="E168" t="n">
-        <v>2.83</v>
+        <v>2.46</v>
       </c>
       <c r="F168" t="n">
-        <v>1.437845610627233</v>
+        <v>1.33681596455044</v>
       </c>
       <c r="G168" t="n">
-        <v>1.016740014167957</v>
+        <v>0.9847128214151274</v>
       </c>
       <c r="H168" t="n">
-        <v>1.501335768876866</v>
+        <v>1.390995769500839</v>
       </c>
       <c r="I168" t="n">
-        <v>0.2658411139216298</v>
+        <v>0.2772723149600117</v>
       </c>
       <c r="J168" t="n">
-        <v>0.3759451516121083</v>
+        <v>0.3764164019249026</v>
       </c>
       <c r="K168" t="n">
-        <v>3.55</v>
+        <v>3.215</v>
       </c>
       <c r="L168" t="n">
         <v>0.001333333333333333</v>
       </c>
       <c r="M168" t="n">
-        <v>0.001666666666666667</v>
+        <v>0.001833333333333333</v>
       </c>
       <c r="N168" t="n">
         <v>-3.315866100213801e-17</v>
@@ -9424,40 +9424,40 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C170" t="n">
-        <v>10.57786483839373</v>
+        <v>12.92850146914789</v>
       </c>
       <c r="D170" t="n">
         <v>9.73</v>
       </c>
       <c r="E170" t="n">
-        <v>3.01</v>
+        <v>2.57</v>
       </c>
       <c r="F170" t="n">
-        <v>2.900954584270495</v>
+        <v>2.636958475213442</v>
       </c>
       <c r="G170" t="n">
-        <v>2.200350982103638</v>
+        <v>2.23509934698865</v>
       </c>
       <c r="H170" t="n">
-        <v>3.08187761646324</v>
+        <v>2.779452583993235</v>
       </c>
       <c r="I170" t="n">
-        <v>0.3879169214286531</v>
+        <v>0.4816080865205711</v>
       </c>
       <c r="J170" t="n">
-        <v>0.5114317582455329</v>
+        <v>0.5681986920146496</v>
       </c>
       <c r="K170" t="n">
-        <v>5.6</v>
+        <v>3.92</v>
       </c>
       <c r="L170" t="n">
-        <v>0.001333333333333333</v>
+        <v>0.0015</v>
       </c>
       <c r="M170" t="n">
-        <v>0.001333333333333333</v>
+        <v>0.0015</v>
       </c>
       <c r="N170" t="n">
         <v>-1.4210854715202e-17</v>
@@ -9477,31 +9477,31 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C171" t="n">
-        <v>18.78799042180881</v>
+        <v>19.89316632897403</v>
       </c>
       <c r="D171" t="n">
         <v>5.16</v>
       </c>
       <c r="E171" t="n">
-        <v>2.27</v>
+        <v>1.92</v>
       </c>
       <c r="F171" t="n">
-        <v>1.441609343754403</v>
+        <v>1.241142737205374</v>
       </c>
       <c r="G171" t="n">
-        <v>0.8817237462526926</v>
+        <v>0.7791634948032327</v>
       </c>
       <c r="H171" t="n">
-        <v>1.488383911048042</v>
+        <v>1.278823275745416</v>
       </c>
       <c r="I171" t="n">
-        <v>0.2760969549879495</v>
+        <v>0.2583338166597566</v>
       </c>
       <c r="J171" t="n">
-        <v>0.4514157090407966</v>
+        <v>0.4115043151537434</v>
       </c>
       <c r="K171" t="n">
         <v>2.83</v>
@@ -9510,7 +9510,7 @@
         <v>0.001666666666666667</v>
       </c>
       <c r="M171" t="n">
-        <v>0.002166666666666667</v>
+        <v>0.002333333333333334</v>
       </c>
       <c r="N171" t="n">
         <v>-9.473903143468002e-18</v>
@@ -9530,40 +9530,40 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C172" t="n">
-        <v>6.313131313131312</v>
+        <v>8.838383838383837</v>
       </c>
       <c r="D172" t="n">
-        <v>12.42</v>
+        <v>9.42</v>
       </c>
       <c r="E172" t="n">
-        <v>5.65</v>
+        <v>2.85</v>
       </c>
       <c r="F172" t="n">
-        <v>2.810320266446513</v>
+        <v>3.371802188741208</v>
       </c>
       <c r="G172" t="n">
-        <v>2.535237661443203</v>
+        <v>2.473657404003422</v>
       </c>
       <c r="H172" t="n">
-        <v>3.127384423657145</v>
+        <v>3.682485121038056</v>
       </c>
       <c r="I172" t="n">
-        <v>0.2667548044447814</v>
+        <v>0.3643855603540395</v>
       </c>
       <c r="J172" t="n">
-        <v>0.2956986812338502</v>
+        <v>0.4966880328532923</v>
       </c>
       <c r="K172" t="n">
-        <v>9.42</v>
+        <v>7.85</v>
       </c>
       <c r="L172" t="n">
-        <v>0.0006666666666666666</v>
+        <v>0.001</v>
       </c>
       <c r="M172" t="n">
-        <v>0.0006666666666666666</v>
+        <v>0.001</v>
       </c>
       <c r="N172" t="n">
         <v>5.921189464667502e-18</v>
@@ -9583,40 +9583,40 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C173" t="n">
-        <v>13.30376940133038</v>
+        <v>15.52106430155211</v>
       </c>
       <c r="D173" t="n">
-        <v>9.66</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="E173" t="n">
         <v>2.62</v>
       </c>
       <c r="F173" t="n">
-        <v>2.388725411366717</v>
+        <v>2.605393813433379</v>
       </c>
       <c r="G173" t="n">
-        <v>2.364452656247607</v>
+        <v>1.622674498312132</v>
       </c>
       <c r="H173" t="n">
-        <v>2.434343293935198</v>
+        <v>2.711590743267567</v>
       </c>
       <c r="I173" t="n">
-        <v>0.5242688816513541</v>
+        <v>0.4197605871465233</v>
       </c>
       <c r="J173" t="n">
-        <v>0.5296508672653474</v>
+        <v>0.6739747484860921</v>
       </c>
       <c r="K173" t="n">
-        <v>3.42</v>
+        <v>3.325</v>
       </c>
       <c r="L173" t="n">
         <v>0.001</v>
       </c>
       <c r="M173" t="n">
-        <v>0.0015</v>
+        <v>0.001833333333333333</v>
       </c>
       <c r="N173" t="n">
         <v>-1.125025998286825e-17</v>
@@ -9636,10 +9636,10 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C174" t="n">
-        <v>10.62573789846517</v>
+        <v>11.80637544273908</v>
       </c>
       <c r="D174" t="n">
         <v>9.81</v>
@@ -9648,22 +9648,22 @@
         <v>2.51</v>
       </c>
       <c r="F174" t="n">
-        <v>3.47942523989236</v>
+        <v>3.81695632088652</v>
       </c>
       <c r="G174" t="n">
-        <v>2.733166661585056</v>
+        <v>2.771172234913513</v>
       </c>
       <c r="H174" t="n">
-        <v>3.682211098162159</v>
+        <v>4.021777522992097</v>
       </c>
       <c r="I174" t="n">
-        <v>0.4840318763137644</v>
+        <v>0.5452916636980546</v>
       </c>
       <c r="J174" t="n">
-        <v>0.6161910106066752</v>
+        <v>0.7510736562153719</v>
       </c>
       <c r="K174" t="n">
-        <v>5.63</v>
+        <v>4.185</v>
       </c>
       <c r="L174" t="n">
         <v>0.001333333333333333</v>
@@ -9689,40 +9689,40 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C175" t="n">
-        <v>9.736308316430021</v>
+        <v>12.73639521420301</v>
       </c>
       <c r="D175" t="n">
-        <v>9.98</v>
+        <v>7.18</v>
       </c>
       <c r="E175" t="n">
-        <v>2.83</v>
+        <v>2.52</v>
       </c>
       <c r="F175" t="n">
-        <v>3.164851610152633</v>
+        <v>2.419840903861243</v>
       </c>
       <c r="G175" t="n">
-        <v>2.342548977990794</v>
+        <v>1.726698899898037</v>
       </c>
       <c r="H175" t="n">
-        <v>3.399634434128806</v>
+        <v>2.524982068143147</v>
       </c>
       <c r="I175" t="n">
-        <v>0.3801296516009402</v>
+        <v>0.3665319934171826</v>
       </c>
       <c r="J175" t="n">
-        <v>0.5135661842032672</v>
+        <v>0.513667501784517</v>
       </c>
       <c r="K175" t="n">
-        <v>5.975</v>
+        <v>5.17</v>
       </c>
       <c r="L175" t="n">
-        <v>0.001166666666666667</v>
+        <v>0.0015</v>
       </c>
       <c r="M175" t="n">
-        <v>0.001166666666666667</v>
+        <v>0.001666666666666667</v>
       </c>
       <c r="N175" t="n">
         <v>-7.105427357601002e-18</v>
@@ -9795,40 +9795,40 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C177" t="n">
-        <v>12.57142857142857</v>
+        <v>16</v>
       </c>
       <c r="D177" t="n">
         <v>7.55</v>
       </c>
       <c r="E177" t="n">
-        <v>2.81</v>
+        <v>2.68</v>
       </c>
       <c r="F177" t="n">
-        <v>3.013645632784319</v>
+        <v>2.461512980637346</v>
       </c>
       <c r="G177" t="n">
-        <v>1.826844771233127</v>
+        <v>1.584414475687858</v>
       </c>
       <c r="H177" t="n">
-        <v>3.175899522619974</v>
+        <v>2.561478939787396</v>
       </c>
       <c r="I177" t="n">
-        <v>0.3827674758774172</v>
+        <v>0.4225105268500955</v>
       </c>
       <c r="J177" t="n">
-        <v>0.6314305135357621</v>
+        <v>0.6564034615032923</v>
       </c>
       <c r="K177" t="n">
-        <v>4.08</v>
+        <v>3.12</v>
       </c>
       <c r="L177" t="n">
+        <v>0.001333333333333333</v>
+      </c>
+      <c r="M177" t="n">
         <v>0.0015</v>
-      </c>
-      <c r="M177" t="n">
-        <v>0.001666666666666667</v>
       </c>
       <c r="N177" t="n">
         <v>5.921189464667502e-18</v>
@@ -9954,40 +9954,40 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C180" t="n">
-        <v>15.91511936339523</v>
+        <v>17.05191360363774</v>
       </c>
       <c r="D180" t="n">
-        <v>7.27</v>
+        <v>5.67</v>
       </c>
       <c r="E180" t="n">
         <v>2.83</v>
       </c>
       <c r="F180" t="n">
-        <v>1.901092803140827</v>
+        <v>1.098752539408735</v>
       </c>
       <c r="G180" t="n">
-        <v>1.249763054465802</v>
+        <v>0.7154306062651726</v>
       </c>
       <c r="H180" t="n">
-        <v>1.978460940303773</v>
+        <v>1.139843829673151</v>
       </c>
       <c r="I180" t="n">
-        <v>0.3315021364630776</v>
+        <v>0.2033243481238649</v>
       </c>
       <c r="J180" t="n">
-        <v>0.5042686480479647</v>
+        <v>0.3122638895629219</v>
       </c>
       <c r="K180" t="n">
-        <v>3.215</v>
+        <v>3.23</v>
       </c>
       <c r="L180" t="n">
-        <v>0.001166666666666667</v>
+        <v>0.001</v>
       </c>
       <c r="M180" t="n">
-        <v>0.0015</v>
+        <v>0.001666666666666667</v>
       </c>
       <c r="N180" t="n">
         <v>-1.125025998286825e-17</v>
@@ -10007,40 +10007,40 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C181" t="n">
-        <v>11.16071428571429</v>
+        <v>13.39285714285714</v>
       </c>
       <c r="D181" t="n">
-        <v>10.95</v>
+        <v>8.960000000000001</v>
       </c>
       <c r="E181" t="n">
-        <v>2.81</v>
+        <v>2.52</v>
       </c>
       <c r="F181" t="n">
-        <v>2.922514138355688</v>
+        <v>2.579041400492545</v>
       </c>
       <c r="G181" t="n">
-        <v>2.699848555423475</v>
+        <v>1.890560282513674</v>
       </c>
       <c r="H181" t="n">
-        <v>3.075893275854096</v>
+        <v>2.68700306187869</v>
       </c>
       <c r="I181" t="n">
-        <v>0.5022039723629975</v>
+        <v>0.4220000630610879</v>
       </c>
       <c r="J181" t="n">
-        <v>0.5436224215691384</v>
+        <v>0.5756788840385145</v>
       </c>
       <c r="K181" t="n">
-        <v>4.615</v>
+        <v>3.825</v>
       </c>
       <c r="L181" t="n">
-        <v>0.001333333333333333</v>
+        <v>0.0015</v>
       </c>
       <c r="M181" t="n">
-        <v>0.001333333333333333</v>
+        <v>0.001666666666666667</v>
       </c>
       <c r="N181" t="n">
         <v>9.473903143468002e-18</v>

--- a/Features/Plots/RR_plots/sarkar2015.xlsx
+++ b/Features/Plots/RR_plots/sarkar2015.xlsx
@@ -535,13 +535,13 @@
         <v>2.045217417712427</v>
       </c>
       <c r="G2" t="n">
-        <v>1.558198593614709</v>
+        <v>1.505362857696886</v>
       </c>
       <c r="H2" t="n">
-        <v>2.122148506988681</v>
+        <v>2.044953469856357</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4409164101909193</v>
+        <v>0.4259657209102675</v>
       </c>
       <c r="J2" t="n">
         <v>0.5787259246498094</v>
@@ -588,13 +588,13 @@
         <v>1.986188851505857</v>
       </c>
       <c r="G3" t="n">
-        <v>1.213115370069517</v>
+        <v>1.168987220823641</v>
       </c>
       <c r="H3" t="n">
-        <v>2.061017610245868</v>
+        <v>1.980161669330661</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3128313719096194</v>
+        <v>0.3014518528556082</v>
       </c>
       <c r="J3" t="n">
         <v>0.5121872153450358</v>
@@ -641,13 +641,13 @@
         <v>2.045853216781542</v>
       </c>
       <c r="G4" t="n">
-        <v>1.461596485256545</v>
+        <v>1.408429614709885</v>
       </c>
       <c r="H4" t="n">
-        <v>2.126885287372364</v>
+        <v>2.043445286532833</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3730601785522631</v>
+        <v>0.3594897831529334</v>
       </c>
       <c r="J4" t="n">
         <v>0.5221867827701293</v>
@@ -694,13 +694,13 @@
         <v>1.371784552013492</v>
       </c>
       <c r="G5" t="n">
-        <v>1.072646038453284</v>
+        <v>1.036274523902276</v>
       </c>
       <c r="H5" t="n">
-        <v>1.41972621567418</v>
+        <v>1.368082413378638</v>
       </c>
       <c r="I5" t="n">
-        <v>0.281929044625885</v>
+        <v>0.2723693334244637</v>
       </c>
       <c r="J5" t="n">
         <v>0.3605531501700084</v>
@@ -747,13 +747,13 @@
         <v>2.001556537155164</v>
       </c>
       <c r="G6" t="n">
-        <v>1.562834726051472</v>
+        <v>1.50984178714931</v>
       </c>
       <c r="H6" t="n">
-        <v>2.076857304615862</v>
+        <v>2.001309775203861</v>
       </c>
       <c r="I6" t="n">
-        <v>0.431325131384951</v>
+        <v>0.4166996652665989</v>
       </c>
       <c r="J6" t="n">
         <v>0.5524075079545071</v>
@@ -800,13 +800,13 @@
         <v>1.812392525549216</v>
       </c>
       <c r="G7" t="n">
-        <v>1.575285891838571</v>
+        <v>1.513485729451863</v>
       </c>
       <c r="H7" t="n">
-        <v>1.892521165967864</v>
+        <v>1.811951066300265</v>
       </c>
       <c r="I7" t="n">
-        <v>0.375618426153731</v>
+        <v>0.3608825106910165</v>
       </c>
       <c r="J7" t="n">
         <v>0.4321552243605982</v>
@@ -853,13 +853,13 @@
         <v>2.135904700329322</v>
       </c>
       <c r="G8" t="n">
-        <v>1.937496666663799</v>
+        <v>1.83807072769249</v>
       </c>
       <c r="H8" t="n">
-        <v>2.239899551319211</v>
+        <v>2.111797549219359</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3578678734140745</v>
+        <v>0.339503274416788</v>
       </c>
       <c r="J8" t="n">
         <v>0.3945150905669231</v>
@@ -906,13 +906,13 @@
         <v>2.902801154997452</v>
       </c>
       <c r="G9" t="n">
-        <v>2.096644324687052</v>
+        <v>2.007384111778865</v>
       </c>
       <c r="H9" t="n">
-        <v>3.036712337081308</v>
+        <v>2.895391607707578</v>
       </c>
       <c r="I9" t="n">
-        <v>0.4608853617190808</v>
+        <v>0.4412641388779333</v>
       </c>
       <c r="J9" t="n">
         <v>0.6380951430659357</v>
@@ -959,13 +959,13 @@
         <v>2.80180136860037</v>
       </c>
       <c r="G10" t="n">
-        <v>1.715539273814505</v>
+        <v>1.64250380517063</v>
       </c>
       <c r="H10" t="n">
-        <v>2.932109696571271</v>
+        <v>2.795656903244952</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3723362504209452</v>
+        <v>0.3564848193533652</v>
       </c>
       <c r="J10" t="n">
         <v>0.6080957935106609</v>
@@ -1012,13 +1012,13 @@
         <v>2.609992337153502</v>
       </c>
       <c r="G11" t="n">
-        <v>2.137672906350608</v>
+        <v>2.038191144249201</v>
       </c>
       <c r="H11" t="n">
-        <v>2.726608801341981</v>
+        <v>2.586688230150669</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4525481518448169</v>
+        <v>0.4314877326162666</v>
       </c>
       <c r="J11" t="n">
         <v>0.552538793469756</v>
@@ -1065,13 +1065,13 @@
         <v>1.466789010048821</v>
       </c>
       <c r="G12" t="n">
-        <v>1.359249793084406</v>
+        <v>1.295993827145793</v>
       </c>
       <c r="H12" t="n">
-        <v>1.528481090640131</v>
+        <v>1.450044482076326</v>
       </c>
       <c r="I12" t="n">
-        <v>0.292311783459012</v>
+        <v>0.2787083499238265</v>
       </c>
       <c r="J12" t="n">
         <v>0.3154384967846928</v>
@@ -1118,13 +1118,13 @@
         <v>2.313482223834884</v>
       </c>
       <c r="G13" t="n">
-        <v>1.845596725378346</v>
+        <v>1.767024334863558</v>
       </c>
       <c r="H13" t="n">
-        <v>2.40993134568375</v>
+        <v>2.297779380759743</v>
       </c>
       <c r="I13" t="n">
-        <v>0.3930983440635455</v>
+        <v>0.3763630106205662</v>
       </c>
       <c r="J13" t="n">
         <v>0.4927544672704759</v>
@@ -1171,13 +1171,13 @@
         <v>2.355015923513045</v>
       </c>
       <c r="G14" t="n">
-        <v>1.799869653400148</v>
+        <v>1.729258828132607</v>
       </c>
       <c r="H14" t="n">
-        <v>2.432678409166375</v>
+        <v>2.329112253389452</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4256559122103316</v>
+        <v>0.4089569722707638</v>
       </c>
       <c r="J14" t="n">
         <v>0.556943914965792</v>
@@ -1224,13 +1224,13 @@
         <v>2.086909750730086</v>
       </c>
       <c r="G15" t="n">
-        <v>1.33683754262985</v>
+        <v>1.288208889449667</v>
       </c>
       <c r="H15" t="n">
-        <v>2.163820517226239</v>
+        <v>2.078931507534039</v>
       </c>
       <c r="I15" t="n">
-        <v>0.3264560543662637</v>
+        <v>0.314580925384534</v>
       </c>
       <c r="J15" t="n">
         <v>0.5096238707521576</v>
@@ -1277,13 +1277,13 @@
         <v>2.071140989889389</v>
       </c>
       <c r="G16" t="n">
-        <v>1.298027102557708</v>
+        <v>1.247104101129194</v>
       </c>
       <c r="H16" t="n">
-        <v>2.159449109042733</v>
+        <v>2.067515114817785</v>
       </c>
       <c r="I16" t="n">
-        <v>0.3166513854991593</v>
+        <v>0.30422881055882</v>
       </c>
       <c r="J16" t="n">
         <v>0.5052511328309637</v>
@@ -1330,13 +1330,13 @@
         <v>2.386968789071194</v>
       </c>
       <c r="G17" t="n">
-        <v>1.898056901149173</v>
+        <v>1.809726247505155</v>
       </c>
       <c r="H17" t="n">
-        <v>2.499209652848054</v>
+        <v>2.370958455983571</v>
       </c>
       <c r="I17" t="n">
-        <v>0.3857839229977993</v>
+        <v>0.367830538110804</v>
       </c>
       <c r="J17" t="n">
         <v>0.4851562579412995</v>
@@ -1383,13 +1383,13 @@
         <v>1.815160690774603</v>
       </c>
       <c r="G18" t="n">
-        <v>1.494412670840699</v>
+        <v>1.435785252027903</v>
       </c>
       <c r="H18" t="n">
-        <v>1.894429433573043</v>
+        <v>1.813778093434316</v>
       </c>
       <c r="I18" t="n">
-        <v>0.3390465047282563</v>
+        <v>0.3257453451372205</v>
       </c>
       <c r="J18" t="n">
         <v>0.4118165616068034</v>
@@ -1436,13 +1436,13 @@
         <v>1.768846139907784</v>
       </c>
       <c r="G19" t="n">
-        <v>1.551877275084302</v>
+        <v>1.490995457947911</v>
       </c>
       <c r="H19" t="n">
-        <v>1.810619348245905</v>
+        <v>1.733536045838742</v>
       </c>
       <c r="I19" t="n">
-        <v>0.3787909233213654</v>
+        <v>0.3639305473774474</v>
       </c>
       <c r="J19" t="n">
         <v>0.4317499027187606</v>
@@ -1489,13 +1489,13 @@
         <v>1.56070954559594</v>
       </c>
       <c r="G20" t="n">
-        <v>1.453039507213692</v>
+        <v>1.403769528408737</v>
       </c>
       <c r="H20" t="n">
-        <v>1.586446024613188</v>
+        <v>1.52873764116352</v>
       </c>
       <c r="I20" t="n">
-        <v>0.3820436916425133</v>
+        <v>0.3690892712731124</v>
       </c>
       <c r="J20" t="n">
         <v>0.4103530794730781</v>
@@ -1542,13 +1542,13 @@
         <v>2.5567573864826</v>
       </c>
       <c r="G21" t="n">
-        <v>1.69944787414121</v>
+        <v>1.632776703445272</v>
       </c>
       <c r="H21" t="n">
-        <v>2.670439045731937</v>
+        <v>2.556750731994724</v>
       </c>
       <c r="I21" t="n">
-        <v>0.4152005706415285</v>
+        <v>0.3989118050138798</v>
       </c>
       <c r="J21" t="n">
         <v>0.6246541256206315</v>
@@ -1595,13 +1595,13 @@
         <v>2.665004690427392</v>
       </c>
       <c r="G22" t="n">
-        <v>2.003266083175173</v>
+        <v>1.888697375912239</v>
       </c>
       <c r="H22" t="n">
-        <v>2.844341500493317</v>
+        <v>2.660637846457123</v>
       </c>
       <c r="I22" t="n">
-        <v>0.3516558367188718</v>
+        <v>0.3315443023836581</v>
       </c>
       <c r="J22" t="n">
         <v>0.4678182604612157</v>
@@ -1648,13 +1648,13 @@
         <v>2.658336800605699</v>
       </c>
       <c r="G23" t="n">
-        <v>2.282607991404622</v>
+        <v>2.185430767352031</v>
       </c>
       <c r="H23" t="n">
-        <v>2.785201804341848</v>
+        <v>2.655585723939275</v>
       </c>
       <c r="I23" t="n">
-        <v>0.4904439730860424</v>
+        <v>0.4695643546682969</v>
       </c>
       <c r="J23" t="n">
         <v>0.5711735292259336</v>
@@ -1701,13 +1701,13 @@
         <v>1.839399985781317</v>
       </c>
       <c r="G24" t="n">
-        <v>1.239264448625221</v>
+        <v>1.194185103417594</v>
       </c>
       <c r="H24" t="n">
-        <v>1.914434374523967</v>
+        <v>1.839329051841118</v>
       </c>
       <c r="I24" t="n">
-        <v>0.3330716506191802</v>
+        <v>0.3209558734468481</v>
       </c>
       <c r="J24" t="n">
         <v>0.4943674371460632</v>
@@ -1754,13 +1754,13 @@
         <v>2.272256587623854</v>
       </c>
       <c r="G25" t="n">
-        <v>1.490033556669111</v>
+        <v>1.420691253004549</v>
       </c>
       <c r="H25" t="n">
-        <v>2.388054763935608</v>
+        <v>2.265507669375674</v>
       </c>
       <c r="I25" t="n">
-        <v>0.3150176652577401</v>
+        <v>0.3003575587747462</v>
       </c>
       <c r="J25" t="n">
         <v>0.4803925132397154</v>
@@ -1807,13 +1807,13 @@
         <v>2.538426678082311</v>
       </c>
       <c r="G26" t="n">
-        <v>2.061976986027994</v>
+        <v>1.966017916063074</v>
       </c>
       <c r="H26" t="n">
-        <v>2.655317725286791</v>
+        <v>2.519055576997062</v>
       </c>
       <c r="I26" t="n">
-        <v>0.414960608238345</v>
+        <v>0.3956494159658583</v>
       </c>
       <c r="J26" t="n">
         <v>0.5108432758672783</v>
@@ -1860,13 +1860,13 @@
         <v>2.829946995970066</v>
       </c>
       <c r="G27" t="n">
-        <v>2.089692887396702</v>
+        <v>1.992443991145357</v>
       </c>
       <c r="H27" t="n">
-        <v>2.980161069472588</v>
+        <v>2.827229032109002</v>
       </c>
       <c r="I27" t="n">
-        <v>0.4257570246594503</v>
+        <v>0.405943395121299</v>
       </c>
       <c r="J27" t="n">
         <v>0.5765774579676003</v>
@@ -1913,13 +1913,13 @@
         <v>2.547337826045065</v>
       </c>
       <c r="G28" t="n">
-        <v>1.624972727043861</v>
+        <v>1.549350703780711</v>
       </c>
       <c r="H28" t="n">
-        <v>2.684503885471412</v>
+        <v>2.546743999698438</v>
       </c>
       <c r="I28" t="n">
-        <v>0.3419686244018074</v>
+        <v>0.3260542900629007</v>
       </c>
       <c r="J28" t="n">
         <v>0.5360764508608326</v>
@@ -1966,13 +1966,13 @@
         <v>1.87840357750937</v>
       </c>
       <c r="G29" t="n">
-        <v>1.170476015373277</v>
+        <v>1.124556980489145</v>
       </c>
       <c r="H29" t="n">
-        <v>1.959758024642714</v>
+        <v>1.876325457435948</v>
       </c>
       <c r="I29" t="n">
-        <v>0.2917773384439615</v>
+        <v>0.2803305991631618</v>
       </c>
       <c r="J29" t="n">
         <v>0.4682501727252504</v>
@@ -2019,13 +2019,13 @@
         <v>2.161676537908819</v>
       </c>
       <c r="G30" t="n">
-        <v>1.454540435597402</v>
+        <v>1.392616442368665</v>
       </c>
       <c r="H30" t="n">
-        <v>2.263846686103505</v>
+        <v>2.158493122987301</v>
       </c>
       <c r="I30" t="n">
-        <v>0.3262520603209125</v>
+        <v>0.3123625665125977</v>
       </c>
       <c r="J30" t="n">
         <v>0.4848620271945014</v>
@@ -2072,13 +2072,13 @@
         <v>2.27010383651749</v>
       </c>
       <c r="G31" t="n">
-        <v>1.544172455209771</v>
+        <v>1.491812320635542</v>
       </c>
       <c r="H31" t="n">
-        <v>2.351128791326965</v>
+        <v>2.265604392939359</v>
       </c>
       <c r="I31" t="n">
-        <v>0.4035997007866624</v>
+        <v>0.389914354583257</v>
       </c>
       <c r="J31" t="n">
         <v>0.593336078546129</v>
@@ -2125,13 +2125,13 @@
         <v>1.955764654710629</v>
       </c>
       <c r="G32" t="n">
-        <v>1.256078189279002</v>
+        <v>1.210387229318766</v>
       </c>
       <c r="H32" t="n">
-        <v>2.031281015542302</v>
+        <v>1.951591673268668</v>
       </c>
       <c r="I32" t="n">
-        <v>0.3137394228350764</v>
+        <v>0.3023268726219933</v>
       </c>
       <c r="J32" t="n">
         <v>0.4885049985004246</v>
@@ -2178,13 +2178,13 @@
         <v>1.890518854299406</v>
       </c>
       <c r="G33" t="n">
-        <v>1.145517062578878</v>
+        <v>1.103847861818293</v>
       </c>
       <c r="H33" t="n">
-        <v>1.963540104909941</v>
+        <v>1.886508311528856</v>
       </c>
       <c r="I33" t="n">
-        <v>0.3009427449071924</v>
+        <v>0.2899956852215443</v>
       </c>
       <c r="J33" t="n">
         <v>0.4966647393543193</v>
@@ -2231,13 +2231,13 @@
         <v>3.085399307851236</v>
       </c>
       <c r="G34" t="n">
-        <v>2.132010266808717</v>
+        <v>2.02260253139365</v>
       </c>
       <c r="H34" t="n">
-        <v>3.272491405641885</v>
+        <v>3.085334485738765</v>
       </c>
       <c r="I34" t="n">
-        <v>0.4236062520978973</v>
+        <v>0.4018681763150506</v>
       </c>
       <c r="J34" t="n">
         <v>0.6130338382378774</v>
@@ -2284,13 +2284,13 @@
         <v>1.996475018626579</v>
       </c>
       <c r="G35" t="n">
-        <v>2.177476240462287</v>
+        <v>2.052944287337964</v>
       </c>
       <c r="H35" t="n">
-        <v>1.996317592110892</v>
+        <v>1.867384116217122</v>
       </c>
       <c r="I35" t="n">
-        <v>0.3927311856545208</v>
+        <v>0.3702705127463262</v>
       </c>
       <c r="J35" t="n">
         <v>0.3600856747021887</v>
@@ -2337,13 +2337,13 @@
         <v>2.706817319288467</v>
       </c>
       <c r="G36" t="n">
-        <v>2.57026634629742</v>
+        <v>2.450652805591547</v>
       </c>
       <c r="H36" t="n">
-        <v>2.760085344896261</v>
+        <v>2.618446867897075</v>
       </c>
       <c r="I36" t="n">
-        <v>0.5244468523329925</v>
+        <v>0.5000404537471158</v>
       </c>
       <c r="J36" t="n">
         <v>0.5523092285693404</v>
@@ -2390,13 +2390,13 @@
         <v>1.730508114206152</v>
       </c>
       <c r="G37" t="n">
-        <v>1.370027605935604</v>
+        <v>1.31627994720283</v>
       </c>
       <c r="H37" t="n">
-        <v>1.790111516756496</v>
+        <v>1.713901292049483</v>
       </c>
       <c r="I37" t="n">
-        <v>0.3361079237056586</v>
+        <v>0.3229220478134892</v>
       </c>
       <c r="J37" t="n">
         <v>0.424544357136818</v>
@@ -2443,13 +2443,13 @@
         <v>1.813609047666497</v>
       </c>
       <c r="G38" t="n">
-        <v>1.16909319084874</v>
+        <v>1.109099184022782</v>
       </c>
       <c r="H38" t="n">
-        <v>1.922569894698239</v>
+        <v>1.812616279794976</v>
       </c>
       <c r="I38" t="n">
-        <v>0.2304540096291622</v>
+        <v>0.2186278699039585</v>
       </c>
       <c r="J38" t="n">
         <v>0.3575022762993291</v>
@@ -2496,13 +2496,13 @@
         <v>1.90627347760718</v>
       </c>
       <c r="G39" t="n">
-        <v>1.290795251367304</v>
+        <v>1.247026685983726</v>
       </c>
       <c r="H39" t="n">
-        <v>1.97407274101366</v>
+        <v>1.902264091410388</v>
       </c>
       <c r="I39" t="n">
-        <v>0.3663562681269548</v>
+        <v>0.3539337803170463</v>
       </c>
       <c r="J39" t="n">
         <v>0.5410426142688307</v>
@@ -2549,13 +2549,13 @@
         <v>3.730021935104891</v>
       </c>
       <c r="G40" t="n">
-        <v>2.448650215687794</v>
+        <v>2.344404093912898</v>
       </c>
       <c r="H40" t="n">
-        <v>3.912070597987256</v>
+        <v>3.730012961668482</v>
       </c>
       <c r="I40" t="n">
-        <v>0.5219147884236861</v>
+        <v>0.4996953663757508</v>
       </c>
       <c r="J40" t="n">
         <v>0.7950313183172059</v>
@@ -2602,13 +2602,13 @@
         <v>3.107067749502737</v>
       </c>
       <c r="G41" t="n">
-        <v>2.420935581734692</v>
+        <v>2.308271508157544</v>
       </c>
       <c r="H41" t="n">
-        <v>3.266991310398946</v>
+        <v>3.099340091051642</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4909714490981122</v>
+        <v>0.4681229091027467</v>
       </c>
       <c r="J41" t="n">
         <v>0.6301206719124282</v>
@@ -2655,13 +2655,13 @@
         <v>1.984160491780556</v>
       </c>
       <c r="G42" t="n">
-        <v>1.384117391112818</v>
+        <v>1.337184438371245</v>
       </c>
       <c r="H42" t="n">
-        <v>2.035502071067156</v>
+        <v>1.961458875013022</v>
       </c>
       <c r="I42" t="n">
-        <v>0.3744230994894909</v>
+        <v>0.3617270798118788</v>
       </c>
       <c r="J42" t="n">
         <v>0.5367431447557862</v>
@@ -2708,13 +2708,13 @@
         <v>1.625363549076534</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9613740167073375</v>
+        <v>0.9308463890460124</v>
       </c>
       <c r="H43" t="n">
-        <v>1.681849322281025</v>
+        <v>1.624820810633181</v>
       </c>
       <c r="I43" t="n">
-        <v>0.2731176183827663</v>
+        <v>0.2644449968880717</v>
       </c>
       <c r="J43" t="n">
         <v>0.461751008260379</v>
@@ -2761,13 +2761,13 @@
         <v>3.469848044878256</v>
       </c>
       <c r="G44" t="n">
-        <v>2.098442423813578</v>
+        <v>2.009105660625034</v>
       </c>
       <c r="H44" t="n">
-        <v>3.63230305103325</v>
+        <v>3.463265071962827</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4558528074902778</v>
+        <v>0.4364458350380234</v>
       </c>
       <c r="J44" t="n">
         <v>0.7537685832465438</v>
@@ -2814,13 +2814,13 @@
         <v>1.83350632792621</v>
       </c>
       <c r="G45" t="n">
-        <v>1.437627201223241</v>
+        <v>1.376423253299007</v>
       </c>
       <c r="H45" t="n">
-        <v>1.914625052303738</v>
+        <v>1.825523359803999</v>
       </c>
       <c r="I45" t="n">
-        <v>0.3253163570559851</v>
+        <v>0.31146669884194</v>
       </c>
       <c r="J45" t="n">
         <v>0.4148986599116447</v>
@@ -2867,13 +2867,13 @@
         <v>1.966151062355078</v>
       </c>
       <c r="G46" t="n">
-        <v>1.235846731135031</v>
+        <v>1.193941372094962</v>
       </c>
       <c r="H46" t="n">
-        <v>2.040322776662318</v>
+        <v>1.966104223159731</v>
       </c>
       <c r="I46" t="n">
-        <v>0.3512924193106968</v>
+        <v>0.3393807197541108</v>
       </c>
       <c r="J46" t="n">
         <v>0.5588831899815457</v>
@@ -2920,13 +2920,13 @@
         <v>1.966768141667167</v>
       </c>
       <c r="G47" t="n">
-        <v>1.727466702657741</v>
+        <v>1.664628566769813</v>
       </c>
       <c r="H47" t="n">
-        <v>2.035028192332908</v>
+        <v>1.955191844277434</v>
       </c>
       <c r="I47" t="n">
-        <v>0.4512881850570698</v>
+        <v>0.4348721764280161</v>
       </c>
       <c r="J47" t="n">
         <v>0.5138039556510606</v>
@@ -2973,13 +2973,13 @@
         <v>2.984407395112135</v>
       </c>
       <c r="G48" t="n">
-        <v>2.389932588542568</v>
+        <v>2.253250053249558</v>
       </c>
       <c r="H48" t="n">
-        <v>3.190443039095713</v>
+        <v>2.984386191078494</v>
       </c>
       <c r="I48" t="n">
-        <v>0.4067585721800891</v>
+        <v>0.3834956595923983</v>
       </c>
       <c r="J48" t="n">
         <v>0.5079362056733967</v>
@@ -3026,13 +3026,13 @@
         <v>1.356705568647818</v>
       </c>
       <c r="G49" t="n">
-        <v>0.968679513564729</v>
+        <v>0.9235996771525874</v>
       </c>
       <c r="H49" t="n">
-        <v>1.421442538018646</v>
+        <v>1.348498794956822</v>
       </c>
       <c r="I49" t="n">
-        <v>0.2043627665748374</v>
+        <v>0.194852252563837</v>
       </c>
       <c r="J49" t="n">
         <v>0.2862248035121979</v>
@@ -3079,13 +3079,13 @@
         <v>1.137544138337791</v>
       </c>
       <c r="G50" t="n">
-        <v>0.7674362079895198</v>
+        <v>0.7430669132049954</v>
       </c>
       <c r="H50" t="n">
-        <v>1.172601909471087</v>
+        <v>1.132841069563109</v>
       </c>
       <c r="I50" t="n">
-        <v>0.215799285199162</v>
+        <v>0.2089467594249547</v>
       </c>
       <c r="J50" t="n">
         <v>0.3198718139438427</v>
@@ -3132,13 +3132,13 @@
         <v>3.062703796558614</v>
       </c>
       <c r="G51" t="n">
-        <v>2.144550528594971</v>
+        <v>2.053250810030009</v>
       </c>
       <c r="H51" t="n">
-        <v>3.2115929211077</v>
+        <v>3.062133702162163</v>
       </c>
       <c r="I51" t="n">
-        <v>0.4540332805776227</v>
+        <v>0.4347037706485552</v>
       </c>
       <c r="J51" t="n">
         <v>0.6484199992714073</v>
@@ -3185,13 +3185,13 @@
         <v>2.694264563561184</v>
       </c>
       <c r="G52" t="n">
-        <v>2.076477892865811</v>
+        <v>2.000944164893266</v>
       </c>
       <c r="H52" t="n">
-        <v>2.804224148837442</v>
+        <v>2.694211414853889</v>
       </c>
       <c r="I52" t="n">
-        <v>0.5375497503720664</v>
+        <v>0.5179959006750318</v>
       </c>
       <c r="J52" t="n">
         <v>0.6974797316911349</v>
@@ -3238,13 +3238,13 @@
         <v>1.468232846760926</v>
       </c>
       <c r="G53" t="n">
-        <v>1.058740958678003</v>
+        <v>1.020228315783546</v>
       </c>
       <c r="H53" t="n">
-        <v>1.528144089729224</v>
+        <v>1.468193351018976</v>
       </c>
       <c r="I53" t="n">
-        <v>0.2610032298202508</v>
+        <v>0.2515090054757816</v>
       </c>
       <c r="J53" t="n">
         <v>0.3619521016843276</v>
@@ -3291,13 +3291,13 @@
         <v>2.0784088465298</v>
       </c>
       <c r="G54" t="n">
-        <v>1.859406094870355</v>
+        <v>1.7864595908731</v>
       </c>
       <c r="H54" t="n">
-        <v>2.169413410453283</v>
+        <v>2.077055207098101</v>
       </c>
       <c r="I54" t="n">
-        <v>0.4323426799018892</v>
+        <v>0.4153814108629996</v>
       </c>
       <c r="J54" t="n">
         <v>0.4832644429420033</v>
@@ -3344,13 +3344,13 @@
         <v>2.359641921987317</v>
       </c>
       <c r="G55" t="n">
-        <v>1.767907340229222</v>
+        <v>1.685633510161243</v>
       </c>
       <c r="H55" t="n">
-        <v>2.4560087314358</v>
+        <v>2.329974463379374</v>
       </c>
       <c r="I55" t="n">
-        <v>0.360195975968169</v>
+        <v>0.3434333878824536</v>
       </c>
       <c r="J55" t="n">
         <v>0.4807568279655583</v>
@@ -3397,13 +3397,13 @@
         <v>1.531492484725025</v>
       </c>
       <c r="G56" t="n">
-        <v>1.03797589376823</v>
+        <v>1.000218598556315</v>
       </c>
       <c r="H56" t="n">
-        <v>1.593722058578597</v>
+        <v>1.531198625511802</v>
       </c>
       <c r="I56" t="n">
-        <v>0.2736144325504655</v>
+        <v>0.2636614645036418</v>
       </c>
       <c r="J56" t="n">
         <v>0.4037073015656252</v>
@@ -3450,13 +3450,13 @@
         <v>2.637206013104694</v>
       </c>
       <c r="G57" t="n">
-        <v>1.770334557207887</v>
+        <v>1.679486826384774</v>
       </c>
       <c r="H57" t="n">
-        <v>2.796064694848419</v>
+        <v>2.636155075151482</v>
       </c>
       <c r="I57" t="n">
-        <v>0.3179480167399222</v>
+        <v>0.3016319731294494</v>
       </c>
       <c r="J57" t="n">
         <v>0.4736361374110443</v>
@@ -3503,13 +3503,13 @@
         <v>1.235715885630674</v>
       </c>
       <c r="G58" t="n">
-        <v>0.9147669262778169</v>
+        <v>0.8874542729094217</v>
       </c>
       <c r="H58" t="n">
-        <v>1.276214291044677</v>
+        <v>1.235689173851985</v>
       </c>
       <c r="I58" t="n">
-        <v>0.2833127663822715</v>
+        <v>0.2748537555011872</v>
       </c>
       <c r="J58" t="n">
         <v>0.3827139744164957</v>
@@ -3556,13 +3556,13 @@
         <v>1.465226091768775</v>
       </c>
       <c r="G59" t="n">
-        <v>0.9151020515253381</v>
+        <v>0.8877793921549137</v>
       </c>
       <c r="H59" t="n">
-        <v>1.512009700145251</v>
+        <v>1.463997096991657</v>
       </c>
       <c r="I59" t="n">
-        <v>0.2899130614224887</v>
+        <v>0.2812569822332004</v>
       </c>
       <c r="J59" t="n">
         <v>0.4641976064120235</v>
@@ -3609,13 +3609,13 @@
         <v>1.736763125427919</v>
       </c>
       <c r="G60" t="n">
-        <v>1.444276312183395</v>
+        <v>1.391739478318483</v>
       </c>
       <c r="H60" t="n">
-        <v>1.794995893145791</v>
+        <v>1.724576270742894</v>
       </c>
       <c r="I60" t="n">
-        <v>0.3588901024239887</v>
+        <v>0.3458351561316785</v>
       </c>
       <c r="J60" t="n">
         <v>0.4315705317002284</v>
@@ -3662,13 +3662,13 @@
         <v>2.781439859552547</v>
       </c>
       <c r="G61" t="n">
-        <v>1.699354919626016</v>
+        <v>1.637539374818704</v>
       </c>
       <c r="H61" t="n">
-        <v>2.895008967702332</v>
+        <v>2.781434647484073</v>
       </c>
       <c r="I61" t="n">
-        <v>0.4207067882363257</v>
+        <v>0.4054032050833219</v>
       </c>
       <c r="J61" t="n">
         <v>0.6885969590404183</v>
@@ -3715,13 +3715,13 @@
         <v>1.940841741787997</v>
       </c>
       <c r="G62" t="n">
-        <v>1.409615639101667</v>
+        <v>1.36485447369857</v>
       </c>
       <c r="H62" t="n">
-        <v>2.000558731478593</v>
+        <v>1.932723352049009</v>
       </c>
       <c r="I62" t="n">
-        <v>0.4041184415987577</v>
+        <v>0.3912859985518208</v>
       </c>
       <c r="J62" t="n">
         <v>0.5564140453074351</v>
@@ -3768,13 +3768,13 @@
         <v>1.767301289014934</v>
       </c>
       <c r="G63" t="n">
-        <v>1.215302838395019</v>
+        <v>1.171095118045586</v>
       </c>
       <c r="H63" t="n">
-        <v>1.83248255317542</v>
+        <v>1.760592288720075</v>
       </c>
       <c r="I63" t="n">
-        <v>0.3165439951168421</v>
+        <v>0.3050294260955944</v>
       </c>
       <c r="J63" t="n">
         <v>0.4603203357434246</v>
@@ -3821,13 +3821,13 @@
         <v>2.365743616105274</v>
       </c>
       <c r="G64" t="n">
-        <v>1.785683009249909</v>
+        <v>1.725133682420647</v>
       </c>
       <c r="H64" t="n">
-        <v>2.454918812023398</v>
+        <v>2.365618959432074</v>
       </c>
       <c r="I64" t="n">
-        <v>0.479077895524032</v>
+        <v>0.4628332183206887</v>
       </c>
       <c r="J64" t="n">
         <v>0.6347013815342355</v>
@@ -3874,13 +3874,13 @@
         <v>1.430375242142192</v>
       </c>
       <c r="G65" t="n">
-        <v>1.021415480269089</v>
+        <v>0.9889812861601578</v>
       </c>
       <c r="H65" t="n">
-        <v>1.480238719486376</v>
+        <v>1.430046463891607</v>
       </c>
       <c r="I65" t="n">
-        <v>0.3070194943510318</v>
+        <v>0.297270347145642</v>
       </c>
       <c r="J65" t="n">
         <v>0.4299455922275985</v>
@@ -3927,13 +3927,13 @@
         <v>1.424183976879392</v>
       </c>
       <c r="G66" t="n">
-        <v>1.236085114487028</v>
+        <v>1.187592163972546</v>
       </c>
       <c r="H66" t="n">
-        <v>1.476022501265622</v>
+        <v>1.413183954370021</v>
       </c>
       <c r="I66" t="n">
-        <v>0.3002448895428133</v>
+        <v>0.288465959111418</v>
       </c>
       <c r="J66" t="n">
         <v>0.3459340751014965</v>
@@ -3980,13 +3980,13 @@
         <v>1.594920508543115</v>
       </c>
       <c r="G67" t="n">
-        <v>1.179474459240216</v>
+        <v>1.139480583423869</v>
       </c>
       <c r="H67" t="n">
-        <v>1.655073452106623</v>
+        <v>1.594868685017353</v>
       </c>
       <c r="I67" t="n">
-        <v>0.3224369762821805</v>
+        <v>0.3115037133471484</v>
       </c>
       <c r="J67" t="n">
         <v>0.4360088869718741</v>
@@ -4033,13 +4033,13 @@
         <v>1.370172043420617</v>
       </c>
       <c r="G68" t="n">
-        <v>0.9028167561792899</v>
+        <v>0.8722038497711161</v>
       </c>
       <c r="H68" t="n">
-        <v>1.421856857449766</v>
+        <v>1.370135551166901</v>
       </c>
       <c r="I68" t="n">
-        <v>0.2574083129193945</v>
+        <v>0.2486800560077312</v>
       </c>
       <c r="J68" t="n">
         <v>0.3906592026479614</v>
@@ -4086,13 +4086,13 @@
         <v>1.790055865050027</v>
       </c>
       <c r="G69" t="n">
-        <v>1.317043247834583</v>
+        <v>1.275221641274567</v>
       </c>
       <c r="H69" t="n">
-        <v>1.851955208755896</v>
+        <v>1.789158709809973</v>
       </c>
       <c r="I69" t="n">
-        <v>0.3815443050036814</v>
+        <v>0.3694286847798853</v>
       </c>
       <c r="J69" t="n">
         <v>0.5185749382726856</v>
@@ -4139,13 +4139,13 @@
         <v>2.255455115442952</v>
       </c>
       <c r="G70" t="n">
-        <v>2.033066649178034</v>
+        <v>1.928736373898725</v>
       </c>
       <c r="H70" t="n">
-        <v>2.379064942367064</v>
+        <v>2.243003938174578</v>
       </c>
       <c r="I70" t="n">
-        <v>0.3936999707935775</v>
+        <v>0.3734965867348422</v>
       </c>
       <c r="J70" t="n">
         <v>0.4367651269254361</v>
@@ -4192,13 +4192,13 @@
         <v>1.512081347018076</v>
       </c>
       <c r="G71" t="n">
-        <v>1.996136723318776</v>
+        <v>1.903241688703732</v>
       </c>
       <c r="H71" t="n">
-        <v>1.579157651689308</v>
+        <v>1.498120489146317</v>
       </c>
       <c r="I71" t="n">
-        <v>0.4014168913438123</v>
+        <v>0.3827359885875878</v>
       </c>
       <c r="J71" t="n">
         <v>0.3040748595465967</v>
@@ -4245,13 +4245,13 @@
         <v>1.830842597107849</v>
       </c>
       <c r="G72" t="n">
-        <v>1.789681658720466</v>
+        <v>1.724580398537687</v>
       </c>
       <c r="H72" t="n">
-        <v>1.872755750909366</v>
+        <v>1.799285525525858</v>
       </c>
       <c r="I72" t="n">
-        <v>0.4597347380199363</v>
+        <v>0.4430114785234426</v>
       </c>
       <c r="J72" t="n">
         <v>0.4703081900827503</v>
@@ -4298,13 +4298,13 @@
         <v>1.189429635221376</v>
       </c>
       <c r="G73" t="n">
-        <v>0.8214603720552457</v>
+        <v>0.7936061155678341</v>
       </c>
       <c r="H73" t="n">
-        <v>1.229039650108352</v>
+        <v>1.18433224102988</v>
       </c>
       <c r="I73" t="n">
-        <v>0.2253045452702265</v>
+        <v>0.217664869875983</v>
       </c>
       <c r="J73" t="n">
         <v>0.3262286437798619</v>
@@ -4351,13 +4351,13 @@
         <v>2.175789511878389</v>
       </c>
       <c r="G74" t="n">
-        <v>1.833201868564695</v>
+        <v>1.747889400211553</v>
       </c>
       <c r="H74" t="n">
-        <v>2.275491644067765</v>
+        <v>2.158720917580593</v>
       </c>
       <c r="I74" t="n">
-        <v>0.3772726015755219</v>
+        <v>0.3597153115496179</v>
       </c>
       <c r="J74" t="n">
         <v>0.4477770744745048</v>
@@ -4404,13 +4404,13 @@
         <v>2.753490512059194</v>
       </c>
       <c r="G75" t="n">
-        <v>1.554015911934448</v>
+        <v>1.48169603512187</v>
       </c>
       <c r="H75" t="n">
-        <v>2.89746805178437</v>
+        <v>2.748779547362793</v>
       </c>
       <c r="I75" t="n">
-        <v>0.3062923316839085</v>
+        <v>0.2920382796334092</v>
       </c>
       <c r="J75" t="n">
         <v>0.5427055300600454</v>
@@ -4457,13 +4457,13 @@
         <v>1.698725012080138</v>
       </c>
       <c r="G76" t="n">
-        <v>1.011194394052945</v>
+        <v>0.9715241487465111</v>
       </c>
       <c r="H76" t="n">
-        <v>1.772208859707073</v>
+        <v>1.6967608028895</v>
       </c>
       <c r="I76" t="n">
-        <v>0.2441591218924272</v>
+        <v>0.2345804965398336</v>
       </c>
       <c r="J76" t="n">
         <v>0.4101676292169725</v>
@@ -4510,13 +4510,13 @@
         <v>2.178113352830329</v>
       </c>
       <c r="G77" t="n">
-        <v>1.421900527853869</v>
+        <v>1.348933282264175</v>
       </c>
       <c r="H77" t="n">
-        <v>2.309656059051025</v>
+        <v>2.177564615418102</v>
       </c>
       <c r="I77" t="n">
-        <v>0.3127117941178511</v>
+        <v>0.2966644561830162</v>
       </c>
       <c r="J77" t="n">
         <v>0.479022070118832</v>
@@ -4563,13 +4563,13 @@
         <v>2.394704574681395</v>
       </c>
       <c r="G78" t="n">
-        <v>1.834229092462652</v>
+        <v>1.748868819769033</v>
       </c>
       <c r="H78" t="n">
-        <v>2.51986088681278</v>
+        <v>2.39054993673004</v>
       </c>
       <c r="I78" t="n">
-        <v>0.3904125390303632</v>
+        <v>0.372243750337836</v>
       </c>
       <c r="J78" t="n">
         <v>0.5097087910506065</v>
@@ -4616,13 +4616,13 @@
         <v>2.368973054581527</v>
       </c>
       <c r="G79" t="n">
-        <v>1.336660112523096</v>
+        <v>1.28422149649934</v>
       </c>
       <c r="H79" t="n">
-        <v>2.473603677130827</v>
+        <v>2.368295214330811</v>
       </c>
       <c r="I79" t="n">
-        <v>0.3126409043324982</v>
+        <v>0.3003756648882948</v>
       </c>
       <c r="J79" t="n">
         <v>0.5540958925793426</v>
@@ -4669,13 +4669,13 @@
         <v>2.323434957127055</v>
       </c>
       <c r="G80" t="n">
-        <v>1.583492687355736</v>
+        <v>1.509801037737661</v>
       </c>
       <c r="H80" t="n">
-        <v>2.407794057269479</v>
+        <v>2.284234007276837</v>
       </c>
       <c r="I80" t="n">
-        <v>0.325091817112973</v>
+        <v>0.3099628856870898</v>
       </c>
       <c r="J80" t="n">
         <v>0.4770023241582232</v>
@@ -4722,13 +4722,13 @@
         <v>2.502056931584269</v>
       </c>
       <c r="G81" t="n">
-        <v>1.673014909942194</v>
+        <v>1.587161302451644</v>
       </c>
       <c r="H81" t="n">
-        <v>2.645340242766514</v>
+        <v>2.49405069894116</v>
       </c>
       <c r="I81" t="n">
-        <v>0.3060206529983893</v>
+        <v>0.2903166823580838</v>
       </c>
       <c r="J81" t="n">
         <v>0.4576654347145178</v>
@@ -4775,13 +4775,13 @@
         <v>2.160504056413173</v>
       </c>
       <c r="G82" t="n">
-        <v>1.448289796046818</v>
+        <v>1.373968340246601</v>
       </c>
       <c r="H82" t="n">
-        <v>2.290540935625857</v>
+        <v>2.159542704221897</v>
       </c>
       <c r="I82" t="n">
-        <v>0.2624188795156401</v>
+        <v>0.2489524080896179</v>
       </c>
       <c r="J82" t="n">
         <v>0.3914665802524322</v>
@@ -4828,13 +4828,13 @@
         <v>3.346288159206323</v>
       </c>
       <c r="G83" t="n">
-        <v>2.267582168056736</v>
+        <v>2.151217329792599</v>
       </c>
       <c r="H83" t="n">
-        <v>3.54739497534615</v>
+        <v>3.344516056819131</v>
       </c>
       <c r="I83" t="n">
-        <v>0.4334063776866851</v>
+        <v>0.4111653917799311</v>
       </c>
       <c r="J83" t="n">
         <v>0.6395810701846949</v>
@@ -4881,13 +4881,13 @@
         <v>1.824033990911354</v>
       </c>
       <c r="G84" t="n">
-        <v>1.708169910882534</v>
+        <v>1.610478036538481</v>
       </c>
       <c r="H84" t="n">
-        <v>1.92160647078725</v>
+        <v>1.797498261473429</v>
       </c>
       <c r="I84" t="n">
-        <v>0.2891391611424263</v>
+        <v>0.2726030154005327</v>
       </c>
       <c r="J84" t="n">
         <v>0.308751286782061</v>
@@ -4934,13 +4934,13 @@
         <v>1.545240832611289</v>
       </c>
       <c r="G85" t="n">
-        <v>1.225273461291419</v>
+        <v>1.180703050676821</v>
       </c>
       <c r="H85" t="n">
-        <v>1.59459945939331</v>
+        <v>1.532041604947444</v>
       </c>
       <c r="I85" t="n">
-        <v>0.323474042204033</v>
+        <v>0.3117073865637467</v>
       </c>
       <c r="J85" t="n">
         <v>0.4079459109288714</v>
@@ -4987,13 +4987,13 @@
         <v>2.633613909103273</v>
       </c>
       <c r="G86" t="n">
-        <v>1.690444057374012</v>
+        <v>1.603696043519469</v>
       </c>
       <c r="H86" t="n">
-        <v>2.793213999042043</v>
+        <v>2.633467413370431</v>
       </c>
       <c r="I86" t="n">
-        <v>0.3392422350740542</v>
+        <v>0.3218334424080814</v>
       </c>
       <c r="J86" t="n">
         <v>0.5285197489671428</v>
@@ -5040,13 +5040,13 @@
         <v>2.869376238836587</v>
       </c>
       <c r="G87" t="n">
-        <v>2.358388509901701</v>
+        <v>2.24863521509793</v>
       </c>
       <c r="H87" t="n">
-        <v>2.987495420731033</v>
+        <v>2.834187008649923</v>
       </c>
       <c r="I87" t="n">
-        <v>0.4834564593536845</v>
+        <v>0.4609576475228705</v>
       </c>
       <c r="J87" t="n">
         <v>0.5882060869773101</v>
@@ -5093,13 +5093,13 @@
         <v>2.158226123463434</v>
       </c>
       <c r="G88" t="n">
-        <v>1.359216351766374</v>
+        <v>1.295961942100115</v>
       </c>
       <c r="H88" t="n">
-        <v>2.274031173440192</v>
+        <v>2.157335393488922</v>
       </c>
       <c r="I88" t="n">
-        <v>0.2916204382568776</v>
+        <v>0.2780491781373369</v>
       </c>
       <c r="J88" t="n">
         <v>0.4630483198380685</v>
@@ -5146,13 +5146,13 @@
         <v>2.981427357979579</v>
       </c>
       <c r="G89" t="n">
-        <v>1.956539152316011</v>
+        <v>1.873243621813956</v>
       </c>
       <c r="H89" t="n">
-        <v>3.126275158017344</v>
+        <v>2.98078640685739</v>
       </c>
       <c r="I89" t="n">
-        <v>0.4314309045900796</v>
+        <v>0.4130636431783806</v>
       </c>
       <c r="J89" t="n">
         <v>0.6574260987827075</v>
@@ -5199,13 +5199,13 @@
         <v>1.427460838147388</v>
       </c>
       <c r="G90" t="n">
-        <v>1.093900259519933</v>
+        <v>1.037764905939683</v>
       </c>
       <c r="H90" t="n">
-        <v>1.508490783678987</v>
+        <v>1.422218749995761</v>
       </c>
       <c r="I90" t="n">
-        <v>0.2024991224583364</v>
+        <v>0.1921075353461095</v>
       </c>
       <c r="J90" t="n">
         <v>0.2642467304974803</v>
@@ -5252,13 +5252,13 @@
         <v>1.847647152461747</v>
       </c>
       <c r="G91" t="n">
-        <v>1.553333414618284</v>
+        <v>1.48720351853926</v>
       </c>
       <c r="H91" t="n">
-        <v>1.916316068065828</v>
+        <v>1.827135680070977</v>
       </c>
       <c r="I91" t="n">
-        <v>0.3357953697607531</v>
+        <v>0.321499589668008</v>
       </c>
       <c r="J91" t="n">
         <v>0.3994193087649245</v>
@@ -5305,13 +5305,13 @@
         <v>2.909337631583081</v>
       </c>
       <c r="G92" t="n">
-        <v>2.085081751176896</v>
+        <v>1.996313790464816</v>
       </c>
       <c r="H92" t="n">
-        <v>3.012189780330461</v>
+        <v>2.872010267252993</v>
       </c>
       <c r="I92" t="n">
-        <v>0.4448174402510711</v>
+        <v>0.4258802752991607</v>
       </c>
       <c r="J92" t="n">
         <v>0.6206586947377239</v>
@@ -5358,13 +5358,13 @@
         <v>1.959835594011793</v>
       </c>
       <c r="G93" t="n">
-        <v>1.410494003295772</v>
+        <v>1.338112102927105</v>
       </c>
       <c r="H93" t="n">
-        <v>2.071586214581581</v>
+        <v>1.953110213524275</v>
       </c>
       <c r="I93" t="n">
-        <v>0.2610092530155019</v>
+        <v>0.2476151189724473</v>
       </c>
       <c r="J93" t="n">
         <v>0.3626638775003317</v>
@@ -5411,13 +5411,13 @@
         <v>3.958704894841802</v>
       </c>
       <c r="G94" t="n">
-        <v>2.895312111365927</v>
+        <v>2.746734242696224</v>
       </c>
       <c r="H94" t="n">
-        <v>4.097246365277267</v>
+        <v>3.862920918772653</v>
       </c>
       <c r="I94" t="n">
-        <v>0.5558287792985077</v>
+        <v>0.5273054794962995</v>
       </c>
       <c r="J94" t="n">
         <v>0.7599740631295453</v>
@@ -5464,13 +5464,13 @@
         <v>1.701069182495633</v>
       </c>
       <c r="G95" t="n">
-        <v>1.047601879040744</v>
+        <v>1.003002437130084</v>
       </c>
       <c r="H95" t="n">
-        <v>1.781647858278703</v>
+        <v>1.698734580078276</v>
       </c>
       <c r="I95" t="n">
-        <v>0.2523328492269957</v>
+        <v>0.2415903100273186</v>
       </c>
       <c r="J95" t="n">
         <v>0.4097316376946528</v>
@@ -5517,13 +5517,13 @@
         <v>1.60738918747141</v>
       </c>
       <c r="G96" t="n">
-        <v>1.359441344534868</v>
+        <v>1.306108996240043</v>
       </c>
       <c r="H96" t="n">
-        <v>1.667504032069997</v>
+        <v>1.596513562596809</v>
       </c>
       <c r="I96" t="n">
-        <v>0.3140703301751072</v>
+        <v>0.3017490128153644</v>
       </c>
       <c r="J96" t="n">
         <v>0.3713534643171909</v>
@@ -5570,13 +5570,13 @@
         <v>2.051904603045668</v>
       </c>
       <c r="G97" t="n">
-        <v>1.625634064330319</v>
+        <v>1.532662494154422</v>
       </c>
       <c r="H97" t="n">
-        <v>2.172128235493607</v>
+        <v>2.031839914338725</v>
       </c>
       <c r="I97" t="n">
-        <v>0.3016640531746983</v>
+        <v>0.2844115968533979</v>
       </c>
       <c r="J97" t="n">
         <v>0.3807658026270311</v>
@@ -5623,13 +5623,13 @@
         <v>1.79014664203802</v>
       </c>
       <c r="G98" t="n">
-        <v>1.25861136340912</v>
+        <v>1.209234683884836</v>
       </c>
       <c r="H98" t="n">
-        <v>1.86970160477791</v>
+        <v>1.790102999829898</v>
       </c>
       <c r="I98" t="n">
-        <v>0.3188220523055059</v>
+        <v>0.3063143197681775</v>
       </c>
       <c r="J98" t="n">
         <v>0.453466608466373</v>
@@ -5676,13 +5676,13 @@
         <v>1.607454855077153</v>
       </c>
       <c r="G99" t="n">
-        <v>1.261863260773088</v>
+        <v>1.197108599918988</v>
       </c>
       <c r="H99" t="n">
-        <v>1.654901809776036</v>
+        <v>1.560256389187367</v>
       </c>
       <c r="I99" t="n">
-        <v>0.2345034864844986</v>
+        <v>0.2224695409624582</v>
       </c>
       <c r="J99" t="n">
         <v>0.2987279046788985</v>
@@ -5729,13 +5729,13 @@
         <v>1.558172005909489</v>
       </c>
       <c r="G100" t="n">
-        <v>1.272480080612485</v>
+        <v>1.207180599579036</v>
       </c>
       <c r="H100" t="n">
-        <v>1.635626791172118</v>
+        <v>1.54208372737093</v>
       </c>
       <c r="I100" t="n">
-        <v>0.2473236308284713</v>
+        <v>0.2346317977801818</v>
       </c>
       <c r="J100" t="n">
         <v>0.3028517018288608</v>
@@ -5782,13 +5782,13 @@
         <v>2.76746725364547</v>
       </c>
       <c r="G101" t="n">
-        <v>2.123894483673277</v>
+        <v>2.002426922573434</v>
       </c>
       <c r="H101" t="n">
-        <v>2.940524734513504</v>
+        <v>2.750609023470984</v>
       </c>
       <c r="I101" t="n">
-        <v>0.3507992356957147</v>
+        <v>0.3307366911939971</v>
       </c>
       <c r="J101" t="n">
         <v>0.4570968119436452</v>
@@ -5835,13 +5835,13 @@
         <v>2.199143189797056</v>
       </c>
       <c r="G102" t="n">
-        <v>1.542583283590609</v>
+        <v>1.48647044631069</v>
       </c>
       <c r="H102" t="n">
-        <v>2.282276472611479</v>
+        <v>2.192740308192376</v>
       </c>
       <c r="I102" t="n">
-        <v>0.3824360894327702</v>
+        <v>0.3685246369461601</v>
       </c>
       <c r="J102" t="n">
         <v>0.5452099284072743</v>
@@ -5888,13 +5888,13 @@
         <v>3.071894095396736</v>
       </c>
       <c r="G103" t="n">
-        <v>2.011435363669989</v>
+        <v>1.90821513462188</v>
       </c>
       <c r="H103" t="n">
-        <v>3.25249818515621</v>
+        <v>3.066484696694527</v>
       </c>
       <c r="I103" t="n">
-        <v>0.3971244548213206</v>
+        <v>0.3767453375364028</v>
       </c>
       <c r="J103" t="n">
         <v>0.6064943919835609</v>
@@ -5941,13 +5941,13 @@
         <v>2.569478192516562</v>
       </c>
       <c r="G104" t="n">
-        <v>2.07737086168303</v>
+        <v>1.988931175838476</v>
       </c>
       <c r="H104" t="n">
-        <v>2.687862956463233</v>
+        <v>2.562776774006747</v>
       </c>
       <c r="I104" t="n">
-        <v>0.457738713554836</v>
+        <v>0.4382514526269135</v>
       </c>
       <c r="J104" t="n">
         <v>0.5661722054755555</v>
@@ -5994,13 +5994,13 @@
         <v>3.885628649266422</v>
       </c>
       <c r="G105" t="n">
-        <v>2.499785445338714</v>
+        <v>2.383451903271096</v>
       </c>
       <c r="H105" t="n">
-        <v>4.090964162367812</v>
+        <v>3.881029373761554</v>
       </c>
       <c r="I105" t="n">
-        <v>0.4975147439610251</v>
+        <v>0.4743616959649368</v>
       </c>
       <c r="J105" t="n">
         <v>0.7733293855967186</v>
@@ -6047,13 +6047,13 @@
         <v>2.77272609537978</v>
       </c>
       <c r="G106" t="n">
-        <v>2.09507170630159</v>
+        <v>1.997572493745495</v>
       </c>
       <c r="H106" t="n">
-        <v>2.913411326187147</v>
+        <v>2.763904665504945</v>
       </c>
       <c r="I106" t="n">
-        <v>0.4669866012019755</v>
+        <v>0.4452542539250343</v>
       </c>
       <c r="J106" t="n">
         <v>0.6180341853936693</v>
@@ -6100,13 +6100,13 @@
         <v>1.57967488024363</v>
       </c>
       <c r="G107" t="n">
-        <v>1.238352705913152</v>
+        <v>1.185632449604664</v>
       </c>
       <c r="H107" t="n">
-        <v>1.647962929856682</v>
+        <v>1.571271002081904</v>
       </c>
       <c r="I107" t="n">
-        <v>0.2703334995626308</v>
+        <v>0.2588246206158989</v>
       </c>
       <c r="J107" t="n">
         <v>0.3448444344719585</v>
@@ -6153,13 +6153,13 @@
         <v>1.533019895500381</v>
       </c>
       <c r="G108" t="n">
-        <v>1.094130226426888</v>
+        <v>1.057030221369706</v>
       </c>
       <c r="H108" t="n">
-        <v>1.586181571580624</v>
+        <v>1.52848280784494</v>
       </c>
       <c r="I108" t="n">
-        <v>0.2927569282269589</v>
+        <v>0.2828300627996002</v>
       </c>
       <c r="J108" t="n">
         <v>0.41019083896728</v>
@@ -6206,13 +6206,13 @@
         <v>1.602850825632495</v>
       </c>
       <c r="G109" t="n">
-        <v>1.14486454882874</v>
+        <v>1.103219083835471</v>
       </c>
       <c r="H109" t="n">
-        <v>1.655760341260869</v>
+        <v>1.590803079538704</v>
       </c>
       <c r="I109" t="n">
-        <v>0.3052390722453316</v>
+        <v>0.2941357298361567</v>
       </c>
       <c r="J109" t="n">
         <v>0.4273454876948186</v>
@@ -6259,13 +6259,13 @@
         <v>3.096031330590826</v>
       </c>
       <c r="G110" t="n">
-        <v>2.236736258683417</v>
+        <v>2.13264434466379</v>
       </c>
       <c r="H110" t="n">
-        <v>3.262154877445957</v>
+        <v>3.094751847887</v>
       </c>
       <c r="I110" t="n">
-        <v>0.4377953531230888</v>
+        <v>0.4174214909484287</v>
       </c>
       <c r="J110" t="n">
         <v>0.6059847800088806</v>
@@ -6312,13 +6312,13 @@
         <v>2.279243295482077</v>
       </c>
       <c r="G111" t="n">
-        <v>1.348242921123257</v>
+        <v>1.29534989904147</v>
       </c>
       <c r="H111" t="n">
-        <v>2.376716604515948</v>
+        <v>2.275532904618168</v>
       </c>
       <c r="I111" t="n">
-        <v>0.3427289396676251</v>
+        <v>0.3292833141873114</v>
       </c>
       <c r="J111" t="n">
         <v>0.5793930942758506</v>
@@ -6365,13 +6365,13 @@
         <v>1.720196768709011</v>
       </c>
       <c r="G112" t="n">
-        <v>1.19952188277361</v>
+        <v>1.155888208703769</v>
       </c>
       <c r="H112" t="n">
-        <v>1.782675891275061</v>
+        <v>1.712739595816283</v>
       </c>
       <c r="I112" t="n">
-        <v>0.3065590792046466</v>
+        <v>0.295407720369711</v>
       </c>
       <c r="J112" t="n">
         <v>0.43962677550066</v>
@@ -6418,13 +6418,13 @@
         <v>1.643797198795895</v>
       </c>
       <c r="G113" t="n">
-        <v>1.059589387607138</v>
+        <v>1.02104588235669</v>
       </c>
       <c r="H113" t="n">
-        <v>1.710468521809906</v>
+        <v>1.64336499923482</v>
       </c>
       <c r="I113" t="n">
-        <v>0.3100805064067713</v>
+        <v>0.2988010525291317</v>
       </c>
       <c r="J113" t="n">
         <v>0.481044330751307</v>
@@ -6471,13 +6471,13 @@
         <v>2.213554026576137</v>
       </c>
       <c r="G114" t="n">
-        <v>1.618921451666716</v>
+        <v>1.56402671190602</v>
       </c>
       <c r="H114" t="n">
-        <v>2.29694984086039</v>
+        <v>2.213396249925366</v>
       </c>
       <c r="I114" t="n">
-        <v>0.4355061293938439</v>
+        <v>0.4207388930880612</v>
       </c>
       <c r="J114" t="n">
         <v>0.5954682639641687</v>
@@ -6524,13 +6524,13 @@
         <v>2.249506612570855</v>
       </c>
       <c r="G115" t="n">
-        <v>1.541567089331207</v>
+        <v>1.469826548489524</v>
       </c>
       <c r="H115" t="n">
-        <v>2.365910677378445</v>
+        <v>2.244499944308308</v>
       </c>
       <c r="I115" t="n">
-        <v>0.3602557463914018</v>
+        <v>0.3434903767449494</v>
       </c>
       <c r="J115" t="n">
         <v>0.5256973175755131</v>
@@ -6577,13 +6577,13 @@
         <v>1.142584788976293</v>
       </c>
       <c r="G116" t="n">
-        <v>0.8169670973149641</v>
+        <v>0.7892651997621304</v>
       </c>
       <c r="H116" t="n">
-        <v>1.183838049512064</v>
+        <v>1.140774888809696</v>
       </c>
       <c r="I116" t="n">
-        <v>0.2194574939062403</v>
+        <v>0.2120160815979935</v>
       </c>
       <c r="J116" t="n">
         <v>0.3069264297035171</v>
@@ -6630,13 +6630,13 @@
         <v>2.110034228263713</v>
       </c>
       <c r="G117" t="n">
-        <v>1.61714048039536</v>
+        <v>1.534154164352462</v>
       </c>
       <c r="H117" t="n">
-        <v>2.237711504590746</v>
+        <v>2.109734638980358</v>
       </c>
       <c r="I117" t="n">
-        <v>0.3227181162233805</v>
+        <v>0.3061572868394456</v>
       </c>
       <c r="J117" t="n">
         <v>0.4210804686217748</v>
@@ -6683,13 +6683,13 @@
         <v>1.613648040930859</v>
       </c>
       <c r="G118" t="n">
-        <v>1.013185570367048</v>
+        <v>0.9810127101623097</v>
       </c>
       <c r="H118" t="n">
-        <v>1.669718539155627</v>
+        <v>1.613101360733417</v>
       </c>
       <c r="I118" t="n">
-        <v>0.2937834201861683</v>
+        <v>0.2844545734432214</v>
       </c>
       <c r="J118" t="n">
         <v>0.4678935965004303</v>
@@ -6736,13 +6736,13 @@
         <v>1.370403833425267</v>
       </c>
       <c r="G119" t="n">
-        <v>0.944704318821503</v>
+        <v>0.9147060234714758</v>
       </c>
       <c r="H119" t="n">
-        <v>1.414036101108488</v>
+        <v>1.366088658258395</v>
       </c>
       <c r="I119" t="n">
-        <v>0.2765831491517667</v>
+        <v>0.2678004826265986</v>
       </c>
       <c r="J119" t="n">
         <v>0.4012161268948631</v>
@@ -6789,13 +6789,13 @@
         <v>1.998920163033486</v>
       </c>
       <c r="G120" t="n">
-        <v>1.507342383337661</v>
+        <v>1.443170458477522</v>
       </c>
       <c r="H120" t="n">
-        <v>2.062726791938724</v>
+        <v>1.96673282794815</v>
       </c>
       <c r="I120" t="n">
-        <v>0.3353997515307237</v>
+        <v>0.3211208140502553</v>
       </c>
       <c r="J120" t="n">
         <v>0.4447810487002007</v>
@@ -6842,13 +6842,13 @@
         <v>1.418128167691482</v>
       </c>
       <c r="G121" t="n">
-        <v>0.9215348450211935</v>
+        <v>0.8940201185199017</v>
       </c>
       <c r="H121" t="n">
-        <v>1.464280824614368</v>
+        <v>1.417783811975577</v>
       </c>
       <c r="I121" t="n">
-        <v>0.2788057014657463</v>
+        <v>0.2704812602747522</v>
       </c>
       <c r="J121" t="n">
         <v>0.4290474968990067</v>
@@ -6895,13 +6895,13 @@
         <v>1.850024569861414</v>
       </c>
       <c r="G122" t="n">
-        <v>1.361777748519793</v>
+        <v>1.303802931172243</v>
       </c>
       <c r="H122" t="n">
-        <v>1.939560868762917</v>
+        <v>1.849298727930122</v>
       </c>
       <c r="I122" t="n">
-        <v>0.3034602225113744</v>
+        <v>0.29054104315816</v>
       </c>
       <c r="J122" t="n">
         <v>0.4122617425875016</v>
@@ -6948,13 +6948,13 @@
         <v>2.180612924677997</v>
       </c>
       <c r="G123" t="n">
-        <v>1.877027792371049</v>
+        <v>1.797117290428078</v>
       </c>
       <c r="H123" t="n">
-        <v>2.192655923760041</v>
+        <v>2.090615394392935</v>
       </c>
       <c r="I123" t="n">
-        <v>0.4535709526470517</v>
+        <v>0.4342611253551538</v>
       </c>
       <c r="J123" t="n">
         <v>0.526930227469512</v>
@@ -7001,13 +7001,13 @@
         <v>1.678484164628636</v>
       </c>
       <c r="G124" t="n">
-        <v>1.378212500657898</v>
+        <v>1.319538008378522</v>
       </c>
       <c r="H124" t="n">
-        <v>1.757505463589077</v>
+        <v>1.675715709926916</v>
       </c>
       <c r="I124" t="n">
-        <v>0.3063829197461056</v>
+        <v>0.2933393127184561</v>
       </c>
       <c r="J124" t="n">
         <v>0.3731346790578666</v>
@@ -7054,13 +7054,13 @@
         <v>1.553166121186011</v>
       </c>
       <c r="G125" t="n">
-        <v>1.2553725568174</v>
+        <v>1.206122939164453</v>
       </c>
       <c r="H125" t="n">
-        <v>1.57867104639544</v>
+        <v>1.511462454049058</v>
       </c>
       <c r="I125" t="n">
-        <v>0.299941981963356</v>
+        <v>0.2881749349225857</v>
       </c>
       <c r="J125" t="n">
         <v>0.3710928060176097</v>
@@ -7107,13 +7107,13 @@
         <v>1.632697155016815</v>
       </c>
       <c r="G126" t="n">
-        <v>1.173601700910898</v>
+        <v>1.133806959857904</v>
       </c>
       <c r="H126" t="n">
-        <v>1.694327316354504</v>
+        <v>1.632694655082417</v>
       </c>
       <c r="I126" t="n">
-        <v>0.3243188193379415</v>
+        <v>0.313321746460364</v>
       </c>
       <c r="J126" t="n">
         <v>0.451187496780623</v>
@@ -7160,13 +7160,13 @@
         <v>3.422317927954678</v>
       </c>
       <c r="G127" t="n">
-        <v>2.097963081398024</v>
+        <v>2.000329311731421</v>
       </c>
       <c r="H127" t="n">
-        <v>3.607351136529714</v>
+        <v>3.422233773429279</v>
       </c>
       <c r="I127" t="n">
-        <v>0.4812845442206102</v>
+        <v>0.4588868076964678</v>
       </c>
       <c r="J127" t="n">
         <v>0.7850990032847019</v>
@@ -7213,13 +7213,13 @@
         <v>1.091882930232602</v>
       </c>
       <c r="G128" t="n">
-        <v>0.78154186855708</v>
+        <v>0.7508811392005398</v>
       </c>
       <c r="H128" t="n">
-        <v>1.140115291884061</v>
+        <v>1.09157728641733</v>
       </c>
       <c r="I128" t="n">
-        <v>0.1989045475967509</v>
+        <v>0.1911013079406229</v>
       </c>
       <c r="J128" t="n">
         <v>0.2778871983755642</v>
@@ -7266,13 +7266,13 @@
         <v>1.709561347246714</v>
       </c>
       <c r="G129" t="n">
-        <v>1.253063674131754</v>
+        <v>1.21057451925384</v>
       </c>
       <c r="H129" t="n">
-        <v>1.773153272414014</v>
+        <v>1.708653246965969</v>
       </c>
       <c r="I129" t="n">
-        <v>0.353573271481872</v>
+        <v>0.3415842322951017</v>
       </c>
       <c r="J129" t="n">
         <v>0.4823818699906078</v>
@@ -7319,13 +7319,13 @@
         <v>1.027587326841721</v>
       </c>
       <c r="G130" t="n">
-        <v>0.8384378899108123</v>
+        <v>0.8100079560651789</v>
       </c>
       <c r="H130" t="n">
-        <v>1.052298635170842</v>
+        <v>1.014020337516935</v>
       </c>
       <c r="I130" t="n">
-        <v>0.2504793536877551</v>
+        <v>0.2419860454287529</v>
       </c>
       <c r="J130" t="n">
         <v>0.3069868532687874</v>
@@ -7372,13 +7372,13 @@
         <v>1.870846510718254</v>
       </c>
       <c r="G131" t="n">
-        <v>1.69118605020567</v>
+        <v>1.624838999762108</v>
       </c>
       <c r="H131" t="n">
-        <v>1.953883467881492</v>
+        <v>1.870700997546701</v>
       </c>
       <c r="I131" t="n">
-        <v>0.3984309288269973</v>
+        <v>0.3828000543114788</v>
       </c>
       <c r="J131" t="n">
         <v>0.4407576049173123</v>
@@ -7425,13 +7425,13 @@
         <v>1.901059854772745</v>
       </c>
       <c r="G132" t="n">
-        <v>1.426500212808557</v>
+        <v>1.378130134155213</v>
       </c>
       <c r="H132" t="n">
-        <v>1.968602449555421</v>
+        <v>1.896992786663424</v>
       </c>
       <c r="I132" t="n">
-        <v>0.3971325759489301</v>
+        <v>0.3836665184173757</v>
       </c>
       <c r="J132" t="n">
         <v>0.5292482891906307</v>
@@ -7478,13 +7478,13 @@
         <v>1.682096905650801</v>
       </c>
       <c r="G133" t="n">
-        <v>1.084978384687039</v>
+        <v>1.048188702264795</v>
       </c>
       <c r="H133" t="n">
-        <v>1.745246762992633</v>
+        <v>1.681761861615275</v>
       </c>
       <c r="I133" t="n">
-        <v>0.3048262927571751</v>
+        <v>0.2944901766992307</v>
       </c>
       <c r="J133" t="n">
         <v>0.4725876303570335</v>
@@ -7531,13 +7531,13 @@
         <v>2.406156875411682</v>
       </c>
       <c r="G134" t="n">
-        <v>1.573146576614891</v>
+        <v>1.50617317692518</v>
       </c>
       <c r="H134" t="n">
-        <v>2.481576478406784</v>
+        <v>2.366090334512691</v>
       </c>
       <c r="I134" t="n">
-        <v>0.3434192999705056</v>
+        <v>0.3287989471184674</v>
       </c>
       <c r="J134" t="n">
         <v>0.5252661907393157</v>
@@ -7584,13 +7584,13 @@
         <v>2.779990189649139</v>
       </c>
       <c r="G135" t="n">
-        <v>2.165141712767004</v>
+        <v>2.072965367937117</v>
       </c>
       <c r="H135" t="n">
-        <v>2.833709101641746</v>
+        <v>2.701835617220141</v>
       </c>
       <c r="I135" t="n">
-        <v>0.4819458459136348</v>
+        <v>0.4614280173482732</v>
       </c>
       <c r="J135" t="n">
         <v>0.6188069426041489</v>
@@ -7637,13 +7637,13 @@
         <v>1.58959598156745</v>
       </c>
       <c r="G136" t="n">
-        <v>1.488535676945118</v>
+        <v>1.43438886936961</v>
       </c>
       <c r="H136" t="n">
-        <v>1.653980048247257</v>
+        <v>1.589092629337693</v>
       </c>
       <c r="I136" t="n">
-        <v>0.3876394992044578</v>
+        <v>0.3735387680650026</v>
       </c>
       <c r="J136" t="n">
         <v>0.4139572868665234</v>
@@ -7690,13 +7690,13 @@
         <v>2.164067928693552</v>
       </c>
       <c r="G137" t="n">
-        <v>1.644798412627462</v>
+        <v>1.56825375329082</v>
       </c>
       <c r="H137" t="n">
-        <v>2.274806218853231</v>
+        <v>2.158070666127502</v>
       </c>
       <c r="I137" t="n">
-        <v>0.3331390635039971</v>
+        <v>0.3176356340673729</v>
       </c>
       <c r="J137" t="n">
         <v>0.4383124142078637</v>
@@ -7743,13 +7743,13 @@
         <v>2.159282288168918</v>
       </c>
       <c r="G138" t="n">
-        <v>1.957878257892271</v>
+        <v>1.866763673197614</v>
       </c>
       <c r="H138" t="n">
-        <v>2.229634748363756</v>
+        <v>2.115217246525756</v>
       </c>
       <c r="I138" t="n">
-        <v>0.4454324888689757</v>
+        <v>0.4247032141711221</v>
       </c>
       <c r="J138" t="n">
         <v>0.4912534678357415</v>
@@ -7796,13 +7796,13 @@
         <v>1.766564462452474</v>
       </c>
       <c r="G139" t="n">
-        <v>1.515276809538049</v>
+        <v>1.46389647478532</v>
       </c>
       <c r="H139" t="n">
-        <v>1.79615661105277</v>
+        <v>1.73081981872694</v>
       </c>
       <c r="I139" t="n">
-        <v>0.4271594088154621</v>
+        <v>0.4126751949216277</v>
       </c>
       <c r="J139" t="n">
         <v>0.4979978751510453</v>
@@ -7849,13 +7849,13 @@
         <v>2.685617247487065</v>
       </c>
       <c r="G140" t="n">
-        <v>2.003367619330466</v>
+        <v>1.910136077537604</v>
       </c>
       <c r="H140" t="n">
-        <v>2.811224327979221</v>
+        <v>2.666961567027166</v>
       </c>
       <c r="I140" t="n">
-        <v>0.4065875242183602</v>
+        <v>0.3876659935961926</v>
       </c>
       <c r="J140" t="n">
         <v>0.5450514708922087</v>
@@ -7902,13 +7902,13 @@
         <v>1.682916261391856</v>
       </c>
       <c r="G141" t="n">
-        <v>1.013455663042237</v>
+        <v>0.9790911885802851</v>
       </c>
       <c r="H141" t="n">
-        <v>1.746346421583021</v>
+        <v>1.682821519147566</v>
       </c>
       <c r="I141" t="n">
-        <v>0.2856950750917789</v>
+        <v>0.2760076645123901</v>
       </c>
       <c r="J141" t="n">
         <v>0.4744172884961068</v>
@@ -7955,13 +7955,13 @@
         <v>0.7303866824377023</v>
       </c>
       <c r="G142" t="n">
-        <v>0.5573912156827209</v>
+        <v>0.5416868942092145</v>
       </c>
       <c r="H142" t="n">
-        <v>0.7522300180131074</v>
+        <v>0.7297703103596042</v>
       </c>
       <c r="I142" t="n">
-        <v>0.1830847058811857</v>
+        <v>0.1779263521125157</v>
       </c>
       <c r="J142" t="n">
         <v>0.2399080343773475</v>
@@ -8008,13 +8008,13 @@
         <v>0.8215697919695703</v>
       </c>
       <c r="G143" t="n">
-        <v>0.964464492991711</v>
+        <v>0.9293812402862015</v>
       </c>
       <c r="H143" t="n">
-        <v>0.8542165401324756</v>
+        <v>0.8207047051270946</v>
       </c>
       <c r="I143" t="n">
-        <v>0.2565552517933489</v>
+        <v>0.2472228266009276</v>
       </c>
       <c r="J143" t="n">
         <v>0.2185441209875353</v>
@@ -8061,13 +8061,13 @@
         <v>1.406621703012084</v>
       </c>
       <c r="G144" t="n">
-        <v>1.169671927329376</v>
+        <v>1.127124071905745</v>
       </c>
       <c r="H144" t="n">
-        <v>1.443413866409627</v>
+        <v>1.386787185629018</v>
       </c>
       <c r="I144" t="n">
-        <v>0.3116157370620603</v>
+        <v>0.3002804378055269</v>
       </c>
       <c r="J144" t="n">
         <v>0.3747422234475581</v>
@@ -8114,13 +8114,13 @@
         <v>0.7363423117002037</v>
       </c>
       <c r="G145" t="n">
-        <v>0.610832423828336</v>
+        <v>0.591435951202664</v>
       </c>
       <c r="H145" t="n">
-        <v>0.7603802306991517</v>
+        <v>0.7345970928943899</v>
       </c>
       <c r="I145" t="n">
-        <v>0.1866205610321439</v>
+        <v>0.1806945812343445</v>
       </c>
       <c r="J145" t="n">
         <v>0.2249661444950021</v>
@@ -8167,13 +8167,13 @@
         <v>3.364494018422383</v>
       </c>
       <c r="G146" t="n">
-        <v>2.291017241314434</v>
+        <v>2.184399230909954</v>
       </c>
       <c r="H146" t="n">
-        <v>3.544983309786756</v>
+        <v>3.363066457862526</v>
       </c>
       <c r="I146" t="n">
-        <v>0.4474643049442253</v>
+        <v>0.4266404747871004</v>
       </c>
       <c r="J146" t="n">
         <v>0.6571277379731216</v>
@@ -8220,13 +8220,13 @@
         <v>1.94491216596877</v>
       </c>
       <c r="G147" t="n">
-        <v>1.823538051602166</v>
+        <v>1.751998689578284</v>
       </c>
       <c r="H147" t="n">
-        <v>2.029376676955192</v>
+        <v>1.942980242365377</v>
       </c>
       <c r="I147" t="n">
-        <v>0.4183164755748749</v>
+        <v>0.4019054696403333</v>
       </c>
       <c r="J147" t="n">
         <v>0.4461594875170992</v>
@@ -8273,13 +8273,13 @@
         <v>2.348104098446842</v>
       </c>
       <c r="G148" t="n">
-        <v>1.661451459531982</v>
+        <v>1.605114603038951</v>
       </c>
       <c r="H148" t="n">
-        <v>2.436449520046797</v>
+        <v>2.347821504358143</v>
       </c>
       <c r="I148" t="n">
-        <v>0.4417970553621651</v>
+        <v>0.4268165049740165</v>
       </c>
       <c r="J148" t="n">
         <v>0.624385064291839</v>
@@ -8326,13 +8326,13 @@
         <v>1.842527379133657</v>
       </c>
       <c r="G149" t="n">
-        <v>1.284306371993403</v>
+        <v>1.240757832939208</v>
       </c>
       <c r="H149" t="n">
-        <v>1.908069762817969</v>
+        <v>1.838662030179687</v>
       </c>
       <c r="I149" t="n">
-        <v>0.3471098302684872</v>
+        <v>0.3353399548484346</v>
       </c>
       <c r="J149" t="n">
         <v>0.4979803727388262</v>
@@ -8379,13 +8379,13 @@
         <v>2.840905078785046</v>
       </c>
       <c r="G150" t="n">
-        <v>1.592374456670419</v>
+        <v>1.529903891478077</v>
       </c>
       <c r="H150" t="n">
-        <v>2.953880216483623</v>
+        <v>2.828124992326581</v>
       </c>
       <c r="I150" t="n">
-        <v>0.3877293114200308</v>
+        <v>0.3725182728828433</v>
       </c>
       <c r="J150" t="n">
         <v>0.6917356438322831</v>
@@ -8432,13 +8432,13 @@
         <v>2.589533420007035</v>
       </c>
       <c r="G151" t="n">
-        <v>2.090864439069186</v>
+        <v>2.008837574909147</v>
       </c>
       <c r="H151" t="n">
-        <v>2.636762247817416</v>
+        <v>2.524507652768929</v>
       </c>
       <c r="I151" t="n">
-        <v>0.5073019355710978</v>
+        <v>0.4873999341884829</v>
       </c>
       <c r="J151" t="n">
         <v>0.6282929163884183</v>
@@ -8485,13 +8485,13 @@
         <v>2.160750255505404</v>
       </c>
       <c r="G152" t="n">
-        <v>1.347296913957341</v>
+        <v>1.294441004755682</v>
       </c>
       <c r="H152" t="n">
-        <v>2.256490134539198</v>
+        <v>2.160424823192574</v>
       </c>
       <c r="I152" t="n">
-        <v>0.3128770968461134</v>
+        <v>0.3006025913151815</v>
       </c>
       <c r="J152" t="n">
         <v>0.5017819457229411</v>
@@ -8538,13 +8538,13 @@
         <v>1.626508091411959</v>
       </c>
       <c r="G153" t="n">
-        <v>1.232475248471643</v>
+        <v>1.190684210397068</v>
       </c>
       <c r="H153" t="n">
-        <v>1.687321174896098</v>
+        <v>1.6259433682434</v>
       </c>
       <c r="I153" t="n">
-        <v>0.334306125263556</v>
+        <v>0.3229704006501993</v>
       </c>
       <c r="J153" t="n">
         <v>0.4411866432401335</v>
@@ -8591,13 +8591,13 @@
         <v>1.329032945953023</v>
       </c>
       <c r="G154" t="n">
-        <v>1.429364827300508</v>
+        <v>1.380897614677577</v>
       </c>
       <c r="H154" t="n">
-        <v>1.342567656428499</v>
+        <v>1.293730565268597</v>
       </c>
       <c r="I154" t="n">
-        <v>0.3965317627058926</v>
+        <v>0.383086077680112</v>
       </c>
       <c r="J154" t="n">
         <v>0.3686978766283586</v>
@@ -8644,13 +8644,13 @@
         <v>2.059645227105499</v>
       </c>
       <c r="G155" t="n">
-        <v>1.444185195575996</v>
+        <v>1.391651676158622</v>
       </c>
       <c r="H155" t="n">
-        <v>2.143629500612789</v>
+        <v>2.059532606251481</v>
       </c>
       <c r="I155" t="n">
-        <v>0.3613689497419831</v>
+        <v>0.3482238331764202</v>
       </c>
       <c r="J155" t="n">
         <v>0.5153714598655404</v>
@@ -8697,13 +8697,13 @@
         <v>1.91197642405806</v>
       </c>
       <c r="G156" t="n">
-        <v>1.315219657415729</v>
+        <v>1.267377374014254</v>
       </c>
       <c r="H156" t="n">
-        <v>1.990040265022358</v>
+        <v>1.911968841814899</v>
       </c>
       <c r="I156" t="n">
-        <v>0.3486664496084114</v>
+        <v>0.3359833977693534</v>
       </c>
       <c r="J156" t="n">
         <v>0.5068674481502148</v>
@@ -8750,13 +8750,13 @@
         <v>1.361423274861031</v>
       </c>
       <c r="G157" t="n">
-        <v>1.043404483729424</v>
+        <v>1.010272047210552</v>
       </c>
       <c r="H157" t="n">
-        <v>1.40748238591702</v>
+        <v>1.359757167863275</v>
       </c>
       <c r="I157" t="n">
-        <v>0.3100180453049358</v>
+        <v>0.3001736816224482</v>
       </c>
       <c r="J157" t="n">
         <v>0.4045083082224047</v>
@@ -8803,13 +8803,13 @@
         <v>1.975790980847923</v>
       </c>
       <c r="G158" t="n">
-        <v>1.410257068764415</v>
+        <v>1.368150318538737</v>
       </c>
       <c r="H158" t="n">
-        <v>2.039723837516572</v>
+        <v>1.974954113390992</v>
       </c>
       <c r="I158" t="n">
-        <v>0.4325941928725199</v>
+        <v>0.4196780118216983</v>
       </c>
       <c r="J158" t="n">
         <v>0.6060708530208354</v>
@@ -8856,13 +8856,13 @@
         <v>1.928124383011541</v>
       </c>
       <c r="G159" t="n">
-        <v>1.875513667012724</v>
+        <v>1.795667625765476</v>
       </c>
       <c r="H159" t="n">
-        <v>2.012949893248035</v>
+        <v>1.919272417237909</v>
       </c>
       <c r="I159" t="n">
-        <v>0.4365043445336052</v>
+        <v>0.4179210921098858</v>
       </c>
       <c r="J159" t="n">
         <v>0.4487488866590087</v>
@@ -8909,13 +8909,13 @@
         <v>1.263800956299234</v>
       </c>
       <c r="G160" t="n">
-        <v>1.32834949503223</v>
+        <v>1.28330753220817</v>
       </c>
       <c r="H160" t="n">
-        <v>1.308125283847751</v>
+        <v>1.260541064587031</v>
       </c>
       <c r="I160" t="n">
-        <v>0.3499954755925427</v>
+        <v>0.3381277530848858</v>
       </c>
       <c r="J160" t="n">
         <v>0.3329881318195769</v>
@@ -8962,13 +8962,13 @@
         <v>1.510203392167521</v>
       </c>
       <c r="G161" t="n">
-        <v>1.055752045203977</v>
+        <v>1.019953375840724</v>
       </c>
       <c r="H161" t="n">
-        <v>1.553801435544099</v>
+        <v>1.497280528021331</v>
       </c>
       <c r="I161" t="n">
-        <v>0.2909476516270377</v>
+        <v>0.2810821355430986</v>
       </c>
       <c r="J161" t="n">
         <v>0.4161868617033403</v>
@@ -9015,13 +9015,13 @@
         <v>1.793538003898599</v>
       </c>
       <c r="G162" t="n">
-        <v>1.124288134565072</v>
+        <v>1.086165528616866</v>
       </c>
       <c r="H162" t="n">
-        <v>1.861177253576555</v>
+        <v>1.793475277618449</v>
       </c>
       <c r="I162" t="n">
-        <v>0.322762143894279</v>
+        <v>0.3118178551053202</v>
       </c>
       <c r="J162" t="n">
         <v>0.5148912929852437</v>
@@ -9068,13 +9068,13 @@
         <v>2.299736009694529</v>
       </c>
       <c r="G163" t="n">
-        <v>1.361666346097765</v>
+        <v>1.315494668260659</v>
       </c>
       <c r="H163" t="n">
-        <v>2.386016497276313</v>
+        <v>2.299223027592636</v>
       </c>
       <c r="I163" t="n">
-        <v>0.3670919337071617</v>
+        <v>0.3546445007891785</v>
       </c>
       <c r="J163" t="n">
         <v>0.6199863433755919</v>
@@ -9121,13 +9121,13 @@
         <v>1.736820501533032</v>
       </c>
       <c r="G164" t="n">
-        <v>1.813521603417121</v>
+        <v>1.736314743613291</v>
       </c>
       <c r="H164" t="n">
-        <v>1.801354036172891</v>
+        <v>1.717523683477403</v>
       </c>
       <c r="I164" t="n">
-        <v>0.4250441258008877</v>
+        <v>0.4069487680343651</v>
       </c>
       <c r="J164" t="n">
         <v>0.4070673050468044</v>
@@ -9174,13 +9174,13 @@
         <v>2.468548831466239</v>
       </c>
       <c r="G165" t="n">
-        <v>2.015998236330798</v>
+        <v>1.912543855706321</v>
       </c>
       <c r="H165" t="n">
-        <v>2.604709410109141</v>
+        <v>2.455743582544781</v>
       </c>
       <c r="I165" t="n">
-        <v>0.3744424658861065</v>
+        <v>0.3552273134669986</v>
       </c>
       <c r="J165" t="n">
         <v>0.458497182664606</v>
@@ -9227,13 +9227,13 @@
         <v>1.15778693559536</v>
       </c>
       <c r="G166" t="n">
-        <v>0.9978715911470276</v>
+        <v>0.9697568742018426</v>
       </c>
       <c r="H166" t="n">
-        <v>1.193219816048898</v>
+        <v>1.15759325556463</v>
       </c>
       <c r="I166" t="n">
-        <v>0.3284873562663953</v>
+        <v>0.3192323287423768</v>
       </c>
       <c r="J166" t="n">
         <v>0.3811295691425837</v>
@@ -9280,13 +9280,13 @@
         <v>1.907009626164932</v>
       </c>
       <c r="G167" t="n">
-        <v>1.315312021645706</v>
+        <v>1.270712136297333</v>
       </c>
       <c r="H167" t="n">
-        <v>1.978961876815749</v>
+        <v>1.906975380554457</v>
       </c>
       <c r="I167" t="n">
-        <v>0.349631053069034</v>
+        <v>0.337775687479355</v>
       </c>
       <c r="J167" t="n">
         <v>0.5069137762267231</v>
@@ -9333,13 +9333,13 @@
         <v>2.012292225299298</v>
       </c>
       <c r="G168" t="n">
-        <v>1.248219398449915</v>
+        <v>1.20858323565239</v>
       </c>
       <c r="H168" t="n">
-        <v>2.082891076867736</v>
+        <v>2.012263954411106</v>
       </c>
       <c r="I168" t="n">
-        <v>0.3577841342744291</v>
+        <v>0.3464229983955255</v>
       </c>
       <c r="J168" t="n">
         <v>0.5767946185021277</v>
@@ -9386,13 +9386,13 @@
         <v>1.113774862548282</v>
       </c>
       <c r="G169" t="n">
-        <v>0.7353775336241001</v>
+        <v>0.7157639314328197</v>
       </c>
       <c r="H169" t="n">
-        <v>1.145633511988389</v>
+        <v>1.113355649587829</v>
       </c>
       <c r="I169" t="n">
-        <v>0.2498153609665278</v>
+        <v>0.2431524172577074</v>
       </c>
       <c r="J169" t="n">
         <v>0.378360850856738</v>
@@ -9439,13 +9439,13 @@
         <v>1.568108298671886</v>
       </c>
       <c r="G170" t="n">
-        <v>1.579569129972993</v>
+        <v>1.512322303611237</v>
       </c>
       <c r="H170" t="n">
-        <v>1.588207108088179</v>
+        <v>1.51429606153601</v>
       </c>
       <c r="I170" t="n">
-        <v>0.3679834898015126</v>
+        <v>0.3523173683427461</v>
       </c>
       <c r="J170" t="n">
         <v>0.3653135232782495</v>
@@ -9492,13 +9492,13 @@
         <v>1.384508831998681</v>
       </c>
       <c r="G171" t="n">
-        <v>0.9899390949774162</v>
+        <v>0.9620478736066679</v>
       </c>
       <c r="H171" t="n">
-        <v>1.412763510037726</v>
+        <v>1.370581923742095</v>
       </c>
       <c r="I171" t="n">
-        <v>0.3265329615098678</v>
+        <v>0.317332998440902</v>
       </c>
       <c r="J171" t="n">
         <v>0.4566824074762005</v>
@@ -9545,13 +9545,13 @@
         <v>2.607613851780972</v>
       </c>
       <c r="G172" t="n">
-        <v>1.969390768740424</v>
+        <v>1.892129447515113</v>
       </c>
       <c r="H172" t="n">
-        <v>2.723187748788451</v>
+        <v>2.60725377020002</v>
       </c>
       <c r="I172" t="n">
-        <v>0.4677887811734975</v>
+        <v>0.4494369234002643</v>
       </c>
       <c r="J172" t="n">
         <v>0.6193857130121074</v>
@@ -9598,13 +9598,13 @@
         <v>3.180859422650845</v>
       </c>
       <c r="G173" t="n">
-        <v>1.937161219347422</v>
+        <v>1.861164298061485</v>
       </c>
       <c r="H173" t="n">
-        <v>3.321708213336243</v>
+        <v>3.180293487504993</v>
       </c>
       <c r="I173" t="n">
-        <v>0.4661809672624302</v>
+        <v>0.4478921857608163</v>
       </c>
       <c r="J173" t="n">
         <v>0.7654789428815436</v>
@@ -9651,13 +9651,13 @@
         <v>0.8509847237171769</v>
       </c>
       <c r="G174" t="n">
-        <v>0.9761113575576001</v>
+        <v>0.9469671128411842</v>
       </c>
       <c r="H174" t="n">
-        <v>0.8785508901974129</v>
+        <v>0.8506532416325703</v>
       </c>
       <c r="I174" t="n">
-        <v>0.3158335188138409</v>
+        <v>0.3064035195717573</v>
       </c>
       <c r="J174" t="n">
         <v>0.275347169836163</v>
@@ -9704,13 +9704,13 @@
         <v>2.126606955423861</v>
       </c>
       <c r="G175" t="n">
-        <v>1.467479212150972</v>
+        <v>1.417719608698733</v>
       </c>
       <c r="H175" t="n">
-        <v>2.206882341750387</v>
+        <v>2.126605036106103</v>
       </c>
       <c r="I175" t="n">
-        <v>0.3920247227473657</v>
+        <v>0.3787318634101692</v>
       </c>
       <c r="J175" t="n">
         <v>0.5681051528291704</v>
@@ -9757,13 +9757,13 @@
         <v>2.052244706006896</v>
       </c>
       <c r="G176" t="n">
-        <v>1.340825903152271</v>
+        <v>1.28822385867487</v>
       </c>
       <c r="H176" t="n">
-        <v>2.124285797983678</v>
+        <v>2.033848807611378</v>
       </c>
       <c r="I176" t="n">
-        <v>0.3247761643558696</v>
+        <v>0.3120348455892176</v>
       </c>
       <c r="J176" t="n">
         <v>0.4970967240188123</v>
@@ -9810,13 +9810,13 @@
         <v>3.211213307939992</v>
       </c>
       <c r="G177" t="n">
-        <v>2.318339269756903</v>
+        <v>2.219640861841293</v>
       </c>
       <c r="H177" t="n">
-        <v>3.321280147500632</v>
+        <v>3.166716369045935</v>
       </c>
       <c r="I177" t="n">
-        <v>0.528496794017531</v>
+        <v>0.5059971569547019</v>
       </c>
       <c r="J177" t="n">
         <v>0.732039507889056</v>
@@ -9863,13 +9863,13 @@
         <v>2.092966111253869</v>
       </c>
       <c r="G178" t="n">
-        <v>1.580835523506779</v>
+        <v>1.527232209659757</v>
       </c>
       <c r="H178" t="n">
-        <v>2.151538294562064</v>
+        <v>2.073274177798617</v>
       </c>
       <c r="I178" t="n">
-        <v>0.4267146455389903</v>
+        <v>0.4122455127748129</v>
       </c>
       <c r="J178" t="n">
         <v>0.5649539620084226</v>
@@ -9916,13 +9916,13 @@
         <v>1.540505482903953</v>
       </c>
       <c r="G179" t="n">
-        <v>1.259059739873938</v>
+        <v>1.216367269098167</v>
       </c>
       <c r="H179" t="n">
-        <v>1.595090682599045</v>
+        <v>1.537067842035741</v>
       </c>
       <c r="I179" t="n">
-        <v>0.3323811351303956</v>
+        <v>0.3211106835000442</v>
       </c>
       <c r="J179" t="n">
         <v>0.406680433712765</v>
@@ -9969,13 +9969,13 @@
         <v>2.722010592680834</v>
       </c>
       <c r="G180" t="n">
-        <v>1.684975462044569</v>
+        <v>1.618872059664423</v>
       </c>
       <c r="H180" t="n">
-        <v>2.839591706672997</v>
+        <v>2.718702074928811</v>
       </c>
       <c r="I180" t="n">
-        <v>0.415648595950273</v>
+        <v>0.399342253807163</v>
       </c>
       <c r="J180" t="n">
         <v>0.671463713564532</v>
@@ -10022,13 +10022,13 @@
         <v>2.143764212780874</v>
       </c>
       <c r="G181" t="n">
-        <v>1.439536071991287</v>
+        <v>1.38306152126275</v>
       </c>
       <c r="H181" t="n">
-        <v>2.221369186021554</v>
+        <v>2.126799075031667</v>
       </c>
       <c r="I181" t="n">
-        <v>0.3418076517970178</v>
+        <v>0.3283981694322512</v>
       </c>
       <c r="J181" t="n">
         <v>0.5090216395644084</v>
